--- a/Surveys/08_09_2022_Tracer_Survey.xlsx
+++ b/Surveys/08_09_2022_Tracer_Survey.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Documents\GitHub\RFID_tracers\Surveys\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tacob\Documents\GitHub\RFID_tracers\Surveys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912A4422-BEA3-4B0C-9BA9-C5DA5E7289F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{133C9DCD-9F74-4065-8C4B-7A4051FEB5B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B2B2A732-FF08-4044-9D28-51D663EBD29D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B2B2A732-FF08-4044-9D28-51D663EBD29D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="26">
   <si>
     <t>Rock #</t>
   </si>
@@ -107,6 +107,12 @@
   </si>
   <si>
     <t xml:space="preserve">73 * </t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Nicole Revisit.</t>
   </si>
 </sst>
 </file>
@@ -304,9 +310,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -314,9 +317,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -344,11 +344,29 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -359,19 +377,7 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -690,8 +696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F533EF27-28D8-47A3-9C46-B406200BBC5B}">
   <dimension ref="A1:O102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R57" sqref="R57"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -709,78 +715,78 @@
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="7" t="s">
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7" t="s">
+      <c r="F1" s="24"/>
+      <c r="G1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7" t="s">
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="7">
         <v>13</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>12</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="7">
         <v>10</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="10" t="s">
-        <v>16</v>
+      <c r="O2" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="11">
+      <c r="A3" s="9">
         <v>3</v>
       </c>
       <c r="B3" s="1">
@@ -792,20 +798,34 @@
       <c r="D3" s="1">
         <v>2.54</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
+      <c r="E3" s="3">
+        <v>475294.77299999999</v>
+      </c>
+      <c r="F3" s="3">
+        <v>539903.63100000005</v>
+      </c>
+      <c r="G3" s="10">
+        <v>0.997</v>
+      </c>
+      <c r="H3" s="10">
+        <v>5.0890000000000004</v>
+      </c>
+      <c r="I3" s="10">
+        <v>1.61</v>
+      </c>
+      <c r="J3" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="K3" s="10">
+        <v>1.2190000000000001</v>
+      </c>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="15">
+      <c r="A4" s="13">
         <v>25</v>
       </c>
       <c r="B4" s="2">
@@ -819,18 +839,20 @@
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="15">
+      <c r="A5" s="13">
         <v>30</v>
       </c>
       <c r="B5" s="2">
@@ -842,20 +864,34 @@
       <c r="D5" s="2">
         <v>1.75</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
+      <c r="E5" s="3">
+        <v>475293.82799999998</v>
+      </c>
+      <c r="F5" s="3">
+        <v>539903.99699999997</v>
+      </c>
+      <c r="G5" s="10">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="H5" s="10">
+        <v>5.0620000000000003</v>
+      </c>
+      <c r="I5" s="10">
+        <v>1.3380000000000001</v>
+      </c>
+      <c r="J5" s="10">
+        <v>1.409</v>
+      </c>
+      <c r="K5" s="10">
+        <v>0.87</v>
+      </c>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="15">
+      <c r="A6" s="13">
         <v>99</v>
       </c>
       <c r="B6" s="2">
@@ -867,20 +903,34 @@
       <c r="D6" s="2">
         <v>2.0299999999999998</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
+      <c r="E6" s="3">
+        <v>475294.67599999998</v>
+      </c>
+      <c r="F6" s="3">
+        <v>539903.65</v>
+      </c>
+      <c r="G6" s="10">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="H6" s="10">
+        <v>1.6870000000000001</v>
+      </c>
+      <c r="I6" s="10">
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="J6" s="10">
+        <v>0.246</v>
+      </c>
+      <c r="K6" s="10">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="16">
+      <c r="A7" s="14">
         <v>54</v>
       </c>
       <c r="B7" s="2">
@@ -892,20 +942,34 @@
       <c r="D7" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
+      <c r="E7" s="3">
+        <v>475294.408</v>
+      </c>
+      <c r="F7" s="3">
+        <v>539903.71600000001</v>
+      </c>
+      <c r="G7" s="10">
+        <v>1.0109999999999999</v>
+      </c>
+      <c r="H7" s="10">
+        <v>4.9930000000000003</v>
+      </c>
+      <c r="I7" s="10">
+        <v>1.0620000000000001</v>
+      </c>
+      <c r="J7" s="10">
+        <v>1.0069999999999999</v>
+      </c>
+      <c r="K7" s="10">
+        <v>1.871</v>
+      </c>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="17">
+      <c r="A8" s="15">
         <v>87</v>
       </c>
       <c r="B8" s="2">
@@ -917,145 +981,159 @@
       <c r="D8" s="2">
         <v>1.29</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
+      <c r="E8" s="3">
+        <v>475293.929</v>
+      </c>
+      <c r="F8" s="3">
+        <v>539903.82299999997</v>
+      </c>
+      <c r="G8" s="10">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="H8" s="10">
+        <v>1.34</v>
+      </c>
+      <c r="I8" s="10">
+        <v>0.307</v>
+      </c>
+      <c r="J8" s="10">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="K8" s="10">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="7">
         <v>10</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <v>7</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <v>6</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="13">
+      <c r="A10" s="11">
         <v>113</v>
       </c>
-      <c r="B10" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="29" t="s">
+      <c r="B10" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="20" t="s">
         <v>17</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="14">
+      <c r="A11" s="12">
         <v>42</v>
       </c>
-      <c r="B11" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="29" t="s">
+      <c r="B11" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="20" t="s">
         <v>17</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="14">
+      <c r="A12" s="12">
         <v>4</v>
       </c>
-      <c r="B12" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="29" t="s">
+      <c r="B12" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="20" t="s">
         <v>17</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="15">
+      <c r="A13" s="13">
         <v>105</v>
       </c>
-      <c r="B13" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="29" t="s">
+      <c r="B13" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="20" t="s">
         <v>17</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="16">
+      <c r="A14" s="14">
         <v>33</v>
       </c>
       <c r="B14" s="2">
@@ -1067,45 +1145,59 @@
       <c r="D14" s="2">
         <v>1.84</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
+      <c r="E14" s="3">
+        <v>475293</v>
+      </c>
+      <c r="F14" s="3">
+        <v>539903.04099999997</v>
+      </c>
+      <c r="G14" s="10">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="H14" s="10">
+        <v>2.7970000000000002</v>
+      </c>
+      <c r="I14" s="10">
+        <v>1.6E-2</v>
+      </c>
+      <c r="J14" s="10">
+        <v>1.6E-2</v>
+      </c>
+      <c r="K14" s="10">
+        <v>1.1319999999999999</v>
+      </c>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="16">
+      <c r="A15" s="14">
         <v>117</v>
       </c>
-      <c r="B15" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="29" t="s">
+      <c r="B15" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="20" t="s">
         <v>17</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="16">
+      <c r="A16" s="14">
         <v>26</v>
       </c>
       <c r="B16" s="2">
@@ -1117,20 +1209,34 @@
       <c r="D16" s="2">
         <v>2.15</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
+      <c r="E16" s="3">
+        <v>475293.91800000001</v>
+      </c>
+      <c r="F16" s="3">
+        <v>539902.82999999996</v>
+      </c>
+      <c r="G16" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H16" s="10">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="I16" s="10">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="J16" s="10">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="K16" s="10">
+        <v>0.161</v>
+      </c>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="16">
+      <c r="A17" s="14">
         <v>55</v>
       </c>
       <c r="B17" s="2">
@@ -1142,70 +1248,84 @@
       <c r="D17" s="2">
         <v>1.75</v>
       </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
+      <c r="E17" s="3">
+        <v>475292.79499999998</v>
+      </c>
+      <c r="F17" s="3">
+        <v>539903.41</v>
+      </c>
+      <c r="G17" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H17" s="10">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="I17" s="10">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="J17" s="10">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="K17" s="10">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="17">
+      <c r="A18" s="15">
         <v>71</v>
       </c>
-      <c r="B18" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="29" t="s">
+      <c r="B18" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="20" t="s">
         <v>17</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="17">
+      <c r="A19" s="15">
         <v>51</v>
       </c>
-      <c r="B19" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="29" t="s">
+      <c r="B19" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="20" t="s">
         <v>17</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="17">
+      <c r="A20" s="15">
         <v>80</v>
       </c>
       <c r="B20" s="2">
@@ -1217,20 +1337,34 @@
       <c r="D20" s="2">
         <v>2.1</v>
       </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
+      <c r="E20" s="3">
+        <v>475293.68199999997</v>
+      </c>
+      <c r="F20" s="3">
+        <v>539902.77</v>
+      </c>
+      <c r="G20" s="10">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="H20" s="10">
+        <v>2.702</v>
+      </c>
+      <c r="I20" s="10">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="J20" s="10">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="K20" s="10">
+        <v>1.0980000000000001</v>
+      </c>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="17">
+      <c r="A21" s="15">
         <v>63</v>
       </c>
       <c r="B21" s="2">
@@ -1242,45 +1376,59 @@
       <c r="D21" s="2">
         <v>1.53</v>
       </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
+      <c r="E21" s="3">
+        <v>475292.88199999998</v>
+      </c>
+      <c r="F21" s="3">
+        <v>539902.946</v>
+      </c>
+      <c r="G21" s="10">
+        <v>1.4E-2</v>
+      </c>
+      <c r="H21" s="10">
+        <v>1.623</v>
+      </c>
+      <c r="I21" s="10">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="J21" s="10">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="K21" s="10">
+        <v>0.61</v>
+      </c>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="17">
+      <c r="A22" s="15">
         <v>50</v>
       </c>
-      <c r="B22" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="29" t="s">
+      <c r="B22" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="20" t="s">
         <v>17</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="17">
+      <c r="A23" s="15">
         <v>26</v>
       </c>
       <c r="B23" s="2">
@@ -1292,20 +1440,34 @@
       <c r="D23" s="2">
         <v>1.94</v>
       </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
+      <c r="E23" s="3">
+        <v>475293.80099999998</v>
+      </c>
+      <c r="F23" s="3">
+        <v>539902.60699999996</v>
+      </c>
+      <c r="G23" s="10">
+        <v>0</v>
+      </c>
+      <c r="H23" s="10">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="I23" s="10">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J23" s="10">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K23" s="10">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="17">
+      <c r="A24" s="15">
         <v>55</v>
       </c>
       <c r="B24" s="2">
@@ -1317,45 +1479,59 @@
       <c r="D24" s="2">
         <v>1.33</v>
       </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
+      <c r="E24" s="3">
+        <v>475293.18199999997</v>
+      </c>
+      <c r="F24" s="3">
+        <v>539902.18599999999</v>
+      </c>
+      <c r="G24" s="10">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="H24" s="10">
+        <v>1.0369999999999999</v>
+      </c>
+      <c r="I24" s="10">
+        <v>0.219</v>
+      </c>
+      <c r="J24" s="10">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="K24" s="10">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="17">
+      <c r="A25" s="15">
         <v>37</v>
       </c>
-      <c r="B25" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="29" t="s">
+      <c r="B25" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="20" t="s">
         <v>17</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A26" s="18">
+      <c r="A26" s="16">
         <v>36</v>
       </c>
       <c r="B26" s="2">
@@ -1367,20 +1543,34 @@
       <c r="D26" s="2">
         <v>1.08</v>
       </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
+      <c r="E26" s="3">
+        <v>475292.62400000001</v>
+      </c>
+      <c r="F26" s="3">
+        <v>539902.46299999999</v>
+      </c>
+      <c r="G26" s="10">
+        <v>0.17</v>
+      </c>
+      <c r="H26" s="10">
+        <v>2.11</v>
+      </c>
+      <c r="I26" s="10">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="J26" s="10">
+        <v>0.72299999999999998</v>
+      </c>
+      <c r="K26" s="10">
+        <v>0.373</v>
+      </c>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A27" s="11">
+      <c r="A27" s="9">
         <v>7</v>
       </c>
       <c r="B27" s="2">
@@ -1392,20 +1582,34 @@
       <c r="D27" s="2">
         <v>1.23</v>
       </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="12"/>
+      <c r="E27" s="3">
+        <v>475292.712</v>
+      </c>
+      <c r="F27" s="3">
+        <v>539902.88199999998</v>
+      </c>
+      <c r="G27" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H27" s="10">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="I27" s="10">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="J27" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="K27" s="10">
+        <v>0.161</v>
+      </c>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28" s="14">
+      <c r="A28" s="12">
         <v>44</v>
       </c>
       <c r="B28" s="2">
@@ -1417,20 +1621,34 @@
       <c r="D28" s="2">
         <v>1.41</v>
       </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="12"/>
+      <c r="E28" s="3">
+        <v>475292.83500000002</v>
+      </c>
+      <c r="F28" s="3">
+        <v>539902.86699999997</v>
+      </c>
+      <c r="G28" s="10">
+        <v>1.9E-2</v>
+      </c>
+      <c r="H28" s="10">
+        <v>1.3839999999999999</v>
+      </c>
+      <c r="I28" s="10">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="J28" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="K28" s="10">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29" s="15">
+      <c r="A29" s="13">
         <v>13</v>
       </c>
       <c r="B29" s="2">
@@ -1442,20 +1660,34 @@
       <c r="D29" s="2">
         <v>1.75</v>
       </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="12"/>
+      <c r="E29" s="3">
+        <v>475292.788</v>
+      </c>
+      <c r="F29" s="3">
+        <v>539903.41700000002</v>
+      </c>
+      <c r="G29" s="10">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="H29" s="10">
+        <v>1.1559999999999999</v>
+      </c>
+      <c r="I29" s="10">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="J29" s="10">
+        <v>7.8E-2</v>
+      </c>
+      <c r="K29" s="10">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A30" s="15">
+      <c r="A30" s="13">
         <v>16</v>
       </c>
       <c r="B30" s="2">
@@ -1467,20 +1699,34 @@
       <c r="D30" s="2">
         <v>1.37</v>
       </c>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="12"/>
+      <c r="E30" s="3">
+        <v>475292.76299999998</v>
+      </c>
+      <c r="F30" s="3">
+        <v>539902.97100000002</v>
+      </c>
+      <c r="G30" s="10">
+        <v>1.2E-2</v>
+      </c>
+      <c r="H30" s="10">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="I30" s="10">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="J30" s="10">
+        <v>5.5E-2</v>
+      </c>
+      <c r="K30" s="10">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31" s="15">
+      <c r="A31" s="13">
         <v>112</v>
       </c>
       <c r="B31" s="2">
@@ -1492,20 +1738,34 @@
       <c r="D31" s="2">
         <v>0.89</v>
       </c>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
-      <c r="O31" s="12"/>
+      <c r="E31" s="3">
+        <v>475292.65399999998</v>
+      </c>
+      <c r="F31" s="3">
+        <v>539902.446</v>
+      </c>
+      <c r="G31" s="10">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H31" s="10">
+        <v>0.46</v>
+      </c>
+      <c r="I31" s="10">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="J31" s="10">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="K31" s="10">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A32" s="16">
+      <c r="A32" s="14">
         <v>32</v>
       </c>
       <c r="B32" s="2">
@@ -1517,20 +1777,34 @@
       <c r="D32" s="2">
         <v>0.48</v>
       </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="12"/>
-      <c r="O32" s="12"/>
+      <c r="E32" s="3">
+        <v>475292.41499999998</v>
+      </c>
+      <c r="F32" s="3">
+        <v>539901.78399999999</v>
+      </c>
+      <c r="G32" s="10">
+        <v>0</v>
+      </c>
+      <c r="H32" s="10">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="I32" s="10">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J32" s="10">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="K32" s="10">
+        <v>1.6E-2</v>
+      </c>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A33" s="16">
+      <c r="A33" s="14">
         <v>59</v>
       </c>
       <c r="B33" s="2">
@@ -1542,20 +1816,34 @@
       <c r="D33" s="2">
         <v>1.68</v>
       </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="12"/>
-      <c r="N33" s="12"/>
-      <c r="O33" s="12"/>
+      <c r="E33" s="3">
+        <v>475292.777</v>
+      </c>
+      <c r="F33" s="3">
+        <v>539903.37600000005</v>
+      </c>
+      <c r="G33" s="10">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H33" s="10">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="I33" s="10">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="J33" s="10">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="K33" s="10">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A34" s="16">
+      <c r="A34" s="14">
         <v>57</v>
       </c>
       <c r="B34" s="2">
@@ -1567,20 +1855,34 @@
       <c r="D34" s="2">
         <v>1.0900000000000001</v>
       </c>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="12"/>
-      <c r="N34" s="12"/>
-      <c r="O34" s="12"/>
+      <c r="E34" s="3">
+        <v>475293.03700000001</v>
+      </c>
+      <c r="F34" s="3">
+        <v>539902.18900000001</v>
+      </c>
+      <c r="G34" s="10">
+        <v>0</v>
+      </c>
+      <c r="H34" s="10">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="I34" s="10">
+        <v>2E-3</v>
+      </c>
+      <c r="J34" s="10">
+        <v>2E-3</v>
+      </c>
+      <c r="K34" s="10">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A35" s="16">
+      <c r="A35" s="14">
         <v>104</v>
       </c>
       <c r="B35" s="2">
@@ -1592,20 +1894,34 @@
       <c r="D35" s="2">
         <v>1.83</v>
       </c>
-      <c r="E35" s="4"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="12"/>
-      <c r="N35" s="12"/>
-      <c r="O35" s="12"/>
+      <c r="E35" s="4">
+        <v>475293.21799999999</v>
+      </c>
+      <c r="F35" s="3">
+        <v>539903.299</v>
+      </c>
+      <c r="G35" s="10">
+        <v>0</v>
+      </c>
+      <c r="H35" s="10">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="I35" s="10">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="J35" s="10">
+        <v>2.7E-2</v>
+      </c>
+      <c r="K35" s="10">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A36" s="17">
+      <c r="A36" s="15">
         <v>127</v>
       </c>
       <c r="B36" s="2">
@@ -1617,20 +1933,34 @@
       <c r="D36" s="2">
         <v>1.48</v>
       </c>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="12"/>
-      <c r="O36" s="12"/>
+      <c r="E36" s="3">
+        <v>475292.85100000002</v>
+      </c>
+      <c r="F36" s="3">
+        <v>539903.00699999998</v>
+      </c>
+      <c r="G36" s="10">
+        <v>2E-3</v>
+      </c>
+      <c r="H36" s="10">
+        <v>1.042</v>
+      </c>
+      <c r="I36" s="10">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="J36" s="10">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="K36" s="10">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A37" s="17">
+      <c r="A37" s="15">
         <v>134</v>
       </c>
       <c r="B37" s="2">
@@ -1642,20 +1972,34 @@
       <c r="D37" s="2">
         <v>1.22</v>
       </c>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="12"/>
-      <c r="O37" s="12"/>
+      <c r="E37" s="3">
+        <v>475293.02100000001</v>
+      </c>
+      <c r="F37" s="3">
+        <v>539902.56599999999</v>
+      </c>
+      <c r="G37" s="10">
+        <v>0</v>
+      </c>
+      <c r="H37" s="10">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="I37" s="10">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="J37" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="K37" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A38" s="17">
+      <c r="A38" s="15">
         <v>79</v>
       </c>
       <c r="B38" s="2">
@@ -1667,20 +2011,34 @@
       <c r="D38" s="2">
         <v>0.44</v>
       </c>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="12"/>
-      <c r="M38" s="12"/>
-      <c r="N38" s="12"/>
-      <c r="O38" s="12"/>
+      <c r="E38" s="3">
+        <v>475292.38799999998</v>
+      </c>
+      <c r="F38" s="3">
+        <v>539901.87300000002</v>
+      </c>
+      <c r="G38" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="H38" s="10">
+        <v>0.26</v>
+      </c>
+      <c r="I38" s="10">
+        <v>2.4E-2</v>
+      </c>
+      <c r="J38" s="10">
+        <v>2.4E-2</v>
+      </c>
+      <c r="K38" s="10">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A39" s="18">
+      <c r="A39" s="16">
         <v>17</v>
       </c>
       <c r="B39" s="2">
@@ -1692,20 +2050,34 @@
       <c r="D39" s="2">
         <v>1.04</v>
       </c>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="12"/>
-      <c r="M39" s="12"/>
-      <c r="N39" s="12"/>
-      <c r="O39" s="12"/>
+      <c r="E39" s="3">
+        <v>475292.75</v>
+      </c>
+      <c r="F39" s="3">
+        <v>539902.571</v>
+      </c>
+      <c r="G39" s="10">
+        <v>2E-3</v>
+      </c>
+      <c r="H39" s="10">
+        <v>0.43</v>
+      </c>
+      <c r="I39" s="10">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J39" s="10">
+        <v>2.3E-2</v>
+      </c>
+      <c r="K39" s="10">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A40" s="18">
+      <c r="A40" s="16">
         <v>44</v>
       </c>
       <c r="B40" s="2">
@@ -1717,20 +2089,34 @@
       <c r="D40" s="2">
         <v>1.29</v>
       </c>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="12"/>
-      <c r="M40" s="12"/>
-      <c r="N40" s="12"/>
-      <c r="O40" s="12"/>
+      <c r="E40" s="3">
+        <v>475292.83</v>
+      </c>
+      <c r="F40" s="3">
+        <v>539902.71600000001</v>
+      </c>
+      <c r="G40" s="10">
+        <v>1.2E-2</v>
+      </c>
+      <c r="H40" s="10">
+        <v>1.1890000000000001</v>
+      </c>
+      <c r="I40" s="10">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="J40" s="10">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="K40" s="10">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A41" s="18">
+      <c r="A41" s="16">
         <v>65</v>
       </c>
       <c r="B41" s="2">
@@ -1742,94 +2128,108 @@
       <c r="D41" s="2">
         <v>1.1499999999999999</v>
       </c>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12"/>
-      <c r="L41" s="12"/>
-      <c r="M41" s="12"/>
-      <c r="N41" s="12"/>
-      <c r="O41" s="12"/>
+      <c r="E41" s="3">
+        <v>475292.79700000002</v>
+      </c>
+      <c r="F41" s="3">
+        <v>539902.62</v>
+      </c>
+      <c r="G41" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H41" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="I41" s="10">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="J41" s="10">
+        <v>2.7E-2</v>
+      </c>
+      <c r="K41" s="10">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A43" s="19" t="s">
+      <c r="A43" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B43" s="20" t="s">
+      <c r="B43" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="7" t="s">
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7" t="s">
+      <c r="F43" s="24"/>
+      <c r="G43" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
-      <c r="L43" s="7" t="s">
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="M43" s="7"/>
-      <c r="N43" s="7"/>
-      <c r="O43" s="7"/>
+      <c r="M43" s="24"/>
+      <c r="N43" s="24"/>
+      <c r="O43" s="24"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B44" s="8">
-        <v>17</v>
-      </c>
-      <c r="C44" s="8">
+      <c r="B44" s="7">
+        <v>17</v>
+      </c>
+      <c r="C44" s="7">
         <v>16</v>
       </c>
-      <c r="D44" s="8">
+      <c r="D44" s="7">
         <v>15</v>
       </c>
-      <c r="E44" s="9" t="s">
+      <c r="E44" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F44" s="9" t="s">
+      <c r="F44" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G44" s="10" t="s">
+      <c r="G44" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H44" s="10" t="s">
+      <c r="H44" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I44" s="10" t="s">
+      <c r="I44" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J44" s="10" t="s">
+      <c r="J44" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K44" s="10" t="s">
+      <c r="K44" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="L44" s="10" t="s">
+      <c r="L44" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="M44" s="10" t="s">
+      <c r="M44" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="N44" s="10" t="s">
+      <c r="N44" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="O44" s="10" t="s">
+      <c r="O44" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A45" s="14">
+      <c r="A45" s="12">
         <v>22</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -1843,18 +2243,18 @@
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="12"/>
-      <c r="J45" s="12"/>
-      <c r="K45" s="12"/>
-      <c r="L45" s="12"/>
-      <c r="M45" s="12"/>
-      <c r="N45" s="12"/>
-      <c r="O45" s="12"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="10"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A46" s="14">
+      <c r="A46" s="12">
         <v>114</v>
       </c>
       <c r="B46" s="2">
@@ -1868,18 +2268,18 @@
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="12"/>
-      <c r="K46" s="12"/>
-      <c r="L46" s="12"/>
-      <c r="M46" s="12"/>
-      <c r="N46" s="12"/>
-      <c r="O46" s="12"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="10"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A47" s="15">
+      <c r="A47" s="13">
         <v>90</v>
       </c>
       <c r="B47" s="2">
@@ -1893,18 +2293,18 @@
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="12"/>
-      <c r="J47" s="12"/>
-      <c r="K47" s="12"/>
-      <c r="L47" s="12"/>
-      <c r="M47" s="12"/>
-      <c r="N47" s="12"/>
-      <c r="O47" s="12"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A48" s="15">
+      <c r="A48" s="13">
         <v>19</v>
       </c>
       <c r="B48" s="2">
@@ -1918,18 +2318,18 @@
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="12"/>
-      <c r="K48" s="12"/>
-      <c r="L48" s="12"/>
-      <c r="M48" s="12"/>
-      <c r="N48" s="12"/>
-      <c r="O48" s="12"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A49" s="15">
+      <c r="A49" s="13">
         <v>106</v>
       </c>
       <c r="B49" s="2">
@@ -1943,18 +2343,18 @@
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="12"/>
-      <c r="I49" s="12"/>
-      <c r="J49" s="12"/>
-      <c r="K49" s="12"/>
-      <c r="L49" s="12"/>
-      <c r="M49" s="12"/>
-      <c r="N49" s="12"/>
-      <c r="O49" s="12"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="10"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A50" s="16">
+      <c r="A50" s="14">
         <v>49</v>
       </c>
       <c r="B50" s="2">
@@ -1968,18 +2368,18 @@
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
-      <c r="I50" s="12"/>
-      <c r="J50" s="12"/>
-      <c r="K50" s="12"/>
-      <c r="L50" s="12"/>
-      <c r="M50" s="12"/>
-      <c r="N50" s="12"/>
-      <c r="O50" s="12"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10"/>
+      <c r="O50" s="10"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A51" s="16">
+      <c r="A51" s="14">
         <v>128</v>
       </c>
       <c r="B51" s="2">
@@ -1993,18 +2393,18 @@
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="12"/>
-      <c r="I51" s="12"/>
-      <c r="J51" s="12"/>
-      <c r="K51" s="12"/>
-      <c r="L51" s="12"/>
-      <c r="M51" s="12"/>
-      <c r="N51" s="12"/>
-      <c r="O51" s="12"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="10"/>
+      <c r="O51" s="10"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A52" s="16">
+      <c r="A52" s="14">
         <v>47</v>
       </c>
       <c r="B52" s="2" t="s">
@@ -2018,18 +2418,18 @@
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
-      <c r="G52" s="12"/>
-      <c r="H52" s="12"/>
-      <c r="I52" s="12"/>
-      <c r="J52" s="12"/>
-      <c r="K52" s="12"/>
-      <c r="L52" s="12"/>
-      <c r="M52" s="12"/>
-      <c r="N52" s="12"/>
-      <c r="O52" s="12"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="10"/>
+      <c r="O52" s="10"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A53" s="16">
+      <c r="A53" s="14">
         <v>39</v>
       </c>
       <c r="B53" s="2">
@@ -2043,18 +2443,18 @@
       </c>
       <c r="E53" s="4"/>
       <c r="F53" s="3"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="12"/>
-      <c r="I53" s="12"/>
-      <c r="J53" s="12"/>
-      <c r="K53" s="12"/>
-      <c r="L53" s="12"/>
-      <c r="M53" s="12"/>
-      <c r="N53" s="12"/>
-      <c r="O53" s="12"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+      <c r="L53" s="10"/>
+      <c r="M53" s="10"/>
+      <c r="N53" s="10"/>
+      <c r="O53" s="10"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A54" s="16">
+      <c r="A54" s="14">
         <v>120</v>
       </c>
       <c r="B54" s="2">
@@ -2068,18 +2468,18 @@
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="12"/>
-      <c r="I54" s="12"/>
-      <c r="J54" s="12"/>
-      <c r="K54" s="12"/>
-      <c r="L54" s="12"/>
-      <c r="M54" s="12"/>
-      <c r="N54" s="12"/>
-      <c r="O54" s="12"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="10"/>
+      <c r="K54" s="10"/>
+      <c r="L54" s="10"/>
+      <c r="M54" s="10"/>
+      <c r="N54" s="10"/>
+      <c r="O54" s="10"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A55" s="16" t="s">
+      <c r="A55" s="14" t="s">
         <v>20</v>
       </c>
       <c r="B55" s="2">
@@ -2093,18 +2493,18 @@
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
-      <c r="G55" s="12"/>
-      <c r="H55" s="12"/>
-      <c r="I55" s="12"/>
-      <c r="J55" s="12"/>
-      <c r="K55" s="12"/>
-      <c r="L55" s="12"/>
-      <c r="M55" s="12"/>
-      <c r="N55" s="12"/>
-      <c r="O55" s="12"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="10"/>
+      <c r="K55" s="10"/>
+      <c r="L55" s="10"/>
+      <c r="M55" s="10"/>
+      <c r="N55" s="10"/>
+      <c r="O55" s="10"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A56" s="17">
+      <c r="A56" s="15">
         <v>130</v>
       </c>
       <c r="B56" s="2">
@@ -2118,18 +2518,18 @@
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="12"/>
-      <c r="I56" s="12"/>
-      <c r="J56" s="12"/>
-      <c r="K56" s="12"/>
-      <c r="L56" s="12"/>
-      <c r="M56" s="12"/>
-      <c r="N56" s="12"/>
-      <c r="O56" s="12"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="10"/>
+      <c r="K56" s="10"/>
+      <c r="L56" s="10"/>
+      <c r="M56" s="10"/>
+      <c r="N56" s="10"/>
+      <c r="O56" s="10"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A57" s="17">
+      <c r="A57" s="15">
         <v>123</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -2143,18 +2543,18 @@
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
-      <c r="G57" s="12"/>
-      <c r="H57" s="12"/>
-      <c r="I57" s="12"/>
-      <c r="J57" s="12"/>
-      <c r="K57" s="12"/>
-      <c r="L57" s="12"/>
-      <c r="M57" s="12"/>
-      <c r="N57" s="12"/>
-      <c r="O57" s="12"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="10"/>
+      <c r="K57" s="10"/>
+      <c r="L57" s="10"/>
+      <c r="M57" s="10"/>
+      <c r="N57" s="10"/>
+      <c r="O57" s="10"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A58" s="17">
+      <c r="A58" s="15">
         <v>124</v>
       </c>
       <c r="B58" s="2" t="s">
@@ -2168,18 +2568,18 @@
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
-      <c r="G58" s="12"/>
-      <c r="H58" s="12"/>
-      <c r="I58" s="12"/>
-      <c r="J58" s="12"/>
-      <c r="K58" s="12"/>
-      <c r="L58" s="12"/>
-      <c r="M58" s="12"/>
-      <c r="N58" s="12"/>
-      <c r="O58" s="12"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="10"/>
+      <c r="K58" s="10"/>
+      <c r="L58" s="10"/>
+      <c r="M58" s="10"/>
+      <c r="N58" s="10"/>
+      <c r="O58" s="10"/>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A59" s="17">
+      <c r="A59" s="15">
         <v>81</v>
       </c>
       <c r="B59" s="2">
@@ -2193,18 +2593,18 @@
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
-      <c r="G59" s="12"/>
-      <c r="H59" s="12"/>
-      <c r="I59" s="12"/>
-      <c r="J59" s="12"/>
-      <c r="K59" s="12"/>
-      <c r="L59" s="12"/>
-      <c r="M59" s="12"/>
-      <c r="N59" s="12"/>
-      <c r="O59" s="12"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
+      <c r="J59" s="10"/>
+      <c r="K59" s="10"/>
+      <c r="L59" s="10"/>
+      <c r="M59" s="10"/>
+      <c r="N59" s="10"/>
+      <c r="O59" s="10"/>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A60" s="17">
+      <c r="A60" s="15">
         <v>6</v>
       </c>
       <c r="B60" s="2">
@@ -2218,18 +2618,18 @@
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
-      <c r="G60" s="12"/>
-      <c r="H60" s="12"/>
-      <c r="I60" s="12"/>
-      <c r="J60" s="12"/>
-      <c r="K60" s="12"/>
-      <c r="L60" s="12"/>
-      <c r="M60" s="12"/>
-      <c r="N60" s="12"/>
-      <c r="O60" s="12"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="10"/>
+      <c r="K60" s="10"/>
+      <c r="L60" s="10"/>
+      <c r="M60" s="10"/>
+      <c r="N60" s="10"/>
+      <c r="O60" s="10"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A61" s="17">
+      <c r="A61" s="15">
         <v>11</v>
       </c>
       <c r="B61" s="2" t="s">
@@ -2243,18 +2643,18 @@
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
-      <c r="G61" s="12"/>
-      <c r="H61" s="12"/>
-      <c r="I61" s="12"/>
-      <c r="J61" s="12"/>
-      <c r="K61" s="12"/>
-      <c r="L61" s="12"/>
-      <c r="M61" s="12"/>
-      <c r="N61" s="12"/>
-      <c r="O61" s="12"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="10"/>
+      <c r="J61" s="10"/>
+      <c r="K61" s="10"/>
+      <c r="L61" s="10"/>
+      <c r="M61" s="10"/>
+      <c r="N61" s="10"/>
+      <c r="O61" s="10"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A62" s="17">
+      <c r="A62" s="15">
         <v>48</v>
       </c>
       <c r="B62" s="2">
@@ -2268,18 +2668,18 @@
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
-      <c r="G62" s="12"/>
-      <c r="H62" s="12"/>
-      <c r="I62" s="12"/>
-      <c r="J62" s="12"/>
-      <c r="K62" s="12"/>
-      <c r="L62" s="12"/>
-      <c r="M62" s="12"/>
-      <c r="N62" s="12"/>
-      <c r="O62" s="12"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="10"/>
+      <c r="J62" s="10"/>
+      <c r="K62" s="10"/>
+      <c r="L62" s="10"/>
+      <c r="M62" s="10"/>
+      <c r="N62" s="10"/>
+      <c r="O62" s="10"/>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A63" s="17">
+      <c r="A63" s="15">
         <v>62</v>
       </c>
       <c r="B63" s="2">
@@ -2293,92 +2693,92 @@
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
-      <c r="G63" s="12"/>
-      <c r="H63" s="12"/>
-      <c r="I63" s="12"/>
-      <c r="J63" s="12"/>
-      <c r="K63" s="12"/>
-      <c r="L63" s="12"/>
-      <c r="M63" s="12"/>
-      <c r="N63" s="12"/>
-      <c r="O63" s="12"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
+      <c r="J63" s="10"/>
+      <c r="K63" s="10"/>
+      <c r="L63" s="10"/>
+      <c r="M63" s="10"/>
+      <c r="N63" s="10"/>
+      <c r="O63" s="10"/>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A65" s="21" t="s">
+      <c r="A65" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B65" s="22" t="s">
+      <c r="B65" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C65" s="23"/>
-      <c r="D65" s="24"/>
-      <c r="E65" s="7" t="s">
+      <c r="C65" s="27"/>
+      <c r="D65" s="28"/>
+      <c r="E65" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7" t="s">
+      <c r="F65" s="24"/>
+      <c r="G65" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H65" s="7"/>
-      <c r="I65" s="7"/>
-      <c r="J65" s="7"/>
-      <c r="K65" s="7"/>
-      <c r="L65" s="7" t="s">
+      <c r="H65" s="24"/>
+      <c r="I65" s="24"/>
+      <c r="J65" s="24"/>
+      <c r="K65" s="24"/>
+      <c r="L65" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="M65" s="7"/>
-      <c r="N65" s="7"/>
-      <c r="O65" s="7"/>
+      <c r="M65" s="24"/>
+      <c r="N65" s="24"/>
+      <c r="O65" s="24"/>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A66" s="8" t="s">
+      <c r="A66" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B66" s="8">
+      <c r="B66" s="7">
         <v>22</v>
       </c>
-      <c r="C66" s="8">
+      <c r="C66" s="7">
         <v>21</v>
       </c>
-      <c r="D66" s="8">
+      <c r="D66" s="7">
         <v>20</v>
       </c>
-      <c r="E66" s="9" t="s">
+      <c r="E66" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F66" s="9" t="s">
+      <c r="F66" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G66" s="10" t="s">
+      <c r="G66" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H66" s="10" t="s">
+      <c r="H66" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I66" s="10" t="s">
+      <c r="I66" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J66" s="10" t="s">
+      <c r="J66" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K66" s="10" t="s">
+      <c r="K66" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="L66" s="10" t="s">
+      <c r="L66" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="M66" s="10" t="s">
+      <c r="M66" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="N66" s="10" t="s">
+      <c r="N66" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="O66" s="10" t="s">
+      <c r="O66" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A67" s="11">
+      <c r="A67" s="9">
         <v>8</v>
       </c>
       <c r="B67" s="2">
@@ -2392,18 +2792,18 @@
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
-      <c r="G67" s="12"/>
-      <c r="H67" s="12"/>
-      <c r="I67" s="12"/>
-      <c r="J67" s="12"/>
-      <c r="K67" s="12"/>
-      <c r="L67" s="12"/>
-      <c r="M67" s="12"/>
-      <c r="N67" s="12"/>
-      <c r="O67" s="12"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="10"/>
+      <c r="I67" s="10"/>
+      <c r="J67" s="10"/>
+      <c r="K67" s="10"/>
+      <c r="L67" s="10"/>
+      <c r="M67" s="10"/>
+      <c r="N67" s="10"/>
+      <c r="O67" s="10"/>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A68" s="14">
+      <c r="A68" s="12">
         <v>2</v>
       </c>
       <c r="B68" s="2">
@@ -2417,18 +2817,18 @@
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
-      <c r="G68" s="12"/>
-      <c r="H68" s="12"/>
-      <c r="I68" s="12"/>
-      <c r="J68" s="12"/>
-      <c r="K68" s="12"/>
-      <c r="L68" s="12"/>
-      <c r="M68" s="12"/>
-      <c r="N68" s="12"/>
-      <c r="O68" s="12"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="10"/>
+      <c r="I68" s="10"/>
+      <c r="J68" s="10"/>
+      <c r="K68" s="10"/>
+      <c r="L68" s="10"/>
+      <c r="M68" s="10"/>
+      <c r="N68" s="10"/>
+      <c r="O68" s="10"/>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A69" s="14">
+      <c r="A69" s="12">
         <v>43</v>
       </c>
       <c r="B69" s="2">
@@ -2442,18 +2842,18 @@
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
-      <c r="G69" s="12"/>
-      <c r="H69" s="12"/>
-      <c r="I69" s="12"/>
-      <c r="J69" s="12"/>
-      <c r="K69" s="12"/>
-      <c r="L69" s="12"/>
-      <c r="M69" s="12"/>
-      <c r="N69" s="12"/>
-      <c r="O69" s="12"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="10"/>
+      <c r="I69" s="10"/>
+      <c r="J69" s="10"/>
+      <c r="K69" s="10"/>
+      <c r="L69" s="10"/>
+      <c r="M69" s="10"/>
+      <c r="N69" s="10"/>
+      <c r="O69" s="10"/>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A70" s="15">
+      <c r="A70" s="13">
         <v>15</v>
       </c>
       <c r="B70" s="2">
@@ -2467,18 +2867,18 @@
       </c>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
-      <c r="G70" s="12"/>
-      <c r="H70" s="12"/>
-      <c r="I70" s="12"/>
-      <c r="J70" s="12"/>
-      <c r="K70" s="12"/>
-      <c r="L70" s="12"/>
-      <c r="M70" s="12"/>
-      <c r="N70" s="12"/>
-      <c r="O70" s="12"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="10"/>
+      <c r="I70" s="10"/>
+      <c r="J70" s="10"/>
+      <c r="K70" s="10"/>
+      <c r="L70" s="10"/>
+      <c r="M70" s="10"/>
+      <c r="N70" s="10"/>
+      <c r="O70" s="10"/>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A71" s="15">
+      <c r="A71" s="13">
         <v>94</v>
       </c>
       <c r="B71" s="2">
@@ -2492,18 +2892,18 @@
       </c>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
-      <c r="G71" s="12"/>
-      <c r="H71" s="12"/>
-      <c r="I71" s="12"/>
-      <c r="J71" s="12"/>
-      <c r="K71" s="12"/>
-      <c r="L71" s="12"/>
-      <c r="M71" s="12"/>
-      <c r="N71" s="12"/>
-      <c r="O71" s="12"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="10"/>
+      <c r="I71" s="10"/>
+      <c r="J71" s="10"/>
+      <c r="K71" s="10"/>
+      <c r="L71" s="10"/>
+      <c r="M71" s="10"/>
+      <c r="N71" s="10"/>
+      <c r="O71" s="10"/>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A72" s="15">
+      <c r="A72" s="13">
         <v>95</v>
       </c>
       <c r="B72" s="2">
@@ -2517,18 +2917,18 @@
       </c>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
-      <c r="G72" s="12"/>
-      <c r="H72" s="12"/>
-      <c r="I72" s="12"/>
-      <c r="J72" s="12"/>
-      <c r="K72" s="12"/>
-      <c r="L72" s="12"/>
-      <c r="M72" s="12"/>
-      <c r="N72" s="12"/>
-      <c r="O72" s="12"/>
+      <c r="G72" s="10"/>
+      <c r="H72" s="10"/>
+      <c r="I72" s="10"/>
+      <c r="J72" s="10"/>
+      <c r="K72" s="10"/>
+      <c r="L72" s="10"/>
+      <c r="M72" s="10"/>
+      <c r="N72" s="10"/>
+      <c r="O72" s="10"/>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A73" s="16">
+      <c r="A73" s="14">
         <v>109</v>
       </c>
       <c r="B73" s="2">
@@ -2542,18 +2942,18 @@
       </c>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
-      <c r="G73" s="12"/>
-      <c r="H73" s="12"/>
-      <c r="I73" s="12"/>
-      <c r="J73" s="12"/>
-      <c r="K73" s="12"/>
-      <c r="L73" s="12"/>
-      <c r="M73" s="12"/>
-      <c r="N73" s="12"/>
-      <c r="O73" s="12"/>
+      <c r="G73" s="10"/>
+      <c r="H73" s="10"/>
+      <c r="I73" s="10"/>
+      <c r="J73" s="10"/>
+      <c r="K73" s="10"/>
+      <c r="L73" s="10"/>
+      <c r="M73" s="10"/>
+      <c r="N73" s="10"/>
+      <c r="O73" s="10"/>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A74" s="16">
+      <c r="A74" s="14">
         <v>66</v>
       </c>
       <c r="B74" s="2"/>
@@ -2561,18 +2961,18 @@
       <c r="D74" s="2"/>
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
-      <c r="G74" s="12"/>
-      <c r="H74" s="12"/>
-      <c r="I74" s="12"/>
-      <c r="J74" s="12"/>
-      <c r="K74" s="12"/>
-      <c r="L74" s="12"/>
-      <c r="M74" s="12"/>
-      <c r="N74" s="12"/>
-      <c r="O74" s="12"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="10"/>
+      <c r="I74" s="10"/>
+      <c r="J74" s="10"/>
+      <c r="K74" s="10"/>
+      <c r="L74" s="10"/>
+      <c r="M74" s="10"/>
+      <c r="N74" s="10"/>
+      <c r="O74" s="10"/>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A75" s="17" t="s">
+      <c r="A75" s="15" t="s">
         <v>23</v>
       </c>
       <c r="B75" s="2">
@@ -2586,18 +2986,18 @@
       </c>
       <c r="E75" s="4"/>
       <c r="F75" s="3"/>
-      <c r="G75" s="12"/>
-      <c r="H75" s="12"/>
-      <c r="I75" s="12"/>
-      <c r="J75" s="12"/>
-      <c r="K75" s="12"/>
-      <c r="L75" s="12"/>
-      <c r="M75" s="12"/>
-      <c r="N75" s="12"/>
-      <c r="O75" s="12"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="10"/>
+      <c r="I75" s="10"/>
+      <c r="J75" s="10"/>
+      <c r="K75" s="10"/>
+      <c r="L75" s="10"/>
+      <c r="M75" s="10"/>
+      <c r="N75" s="10"/>
+      <c r="O75" s="10"/>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A76" s="17">
+      <c r="A76" s="15">
         <v>129</v>
       </c>
       <c r="B76" s="2">
@@ -2611,18 +3011,18 @@
       </c>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
-      <c r="G76" s="12"/>
-      <c r="H76" s="12"/>
-      <c r="I76" s="12"/>
-      <c r="J76" s="12"/>
-      <c r="K76" s="12"/>
-      <c r="L76" s="12"/>
-      <c r="M76" s="12"/>
-      <c r="N76" s="12"/>
-      <c r="O76" s="12"/>
+      <c r="G76" s="10"/>
+      <c r="H76" s="10"/>
+      <c r="I76" s="10"/>
+      <c r="J76" s="10"/>
+      <c r="K76" s="10"/>
+      <c r="L76" s="10"/>
+      <c r="M76" s="10"/>
+      <c r="N76" s="10"/>
+      <c r="O76" s="10"/>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A77" s="17">
+      <c r="A77" s="15">
         <v>70</v>
       </c>
       <c r="B77" s="2">
@@ -2636,18 +3036,18 @@
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
-      <c r="G77" s="12"/>
-      <c r="H77" s="12"/>
-      <c r="I77" s="12"/>
-      <c r="J77" s="12"/>
-      <c r="K77" s="12"/>
-      <c r="L77" s="12"/>
-      <c r="M77" s="12"/>
-      <c r="N77" s="12"/>
-      <c r="O77" s="12"/>
+      <c r="G77" s="10"/>
+      <c r="H77" s="10"/>
+      <c r="I77" s="10"/>
+      <c r="J77" s="10"/>
+      <c r="K77" s="10"/>
+      <c r="L77" s="10"/>
+      <c r="M77" s="10"/>
+      <c r="N77" s="10"/>
+      <c r="O77" s="10"/>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A78" s="17">
+      <c r="A78" s="15">
         <v>58</v>
       </c>
       <c r="B78" s="2">
@@ -2661,18 +3061,18 @@
       </c>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
-      <c r="G78" s="12"/>
-      <c r="H78" s="12"/>
-      <c r="I78" s="12"/>
-      <c r="J78" s="12"/>
-      <c r="K78" s="12"/>
-      <c r="L78" s="12"/>
-      <c r="M78" s="12"/>
-      <c r="N78" s="12"/>
-      <c r="O78" s="12"/>
+      <c r="G78" s="10"/>
+      <c r="H78" s="10"/>
+      <c r="I78" s="10"/>
+      <c r="J78" s="10"/>
+      <c r="K78" s="10"/>
+      <c r="L78" s="10"/>
+      <c r="M78" s="10"/>
+      <c r="N78" s="10"/>
+      <c r="O78" s="10"/>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A79" s="17">
+      <c r="A79" s="15">
         <v>136</v>
       </c>
       <c r="B79" s="2">
@@ -2686,18 +3086,18 @@
       </c>
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
-      <c r="G79" s="12"/>
-      <c r="H79" s="12"/>
-      <c r="I79" s="12"/>
-      <c r="J79" s="12"/>
-      <c r="K79" s="12"/>
-      <c r="L79" s="12"/>
-      <c r="M79" s="12"/>
-      <c r="N79" s="12"/>
-      <c r="O79" s="12"/>
+      <c r="G79" s="10"/>
+      <c r="H79" s="10"/>
+      <c r="I79" s="10"/>
+      <c r="J79" s="10"/>
+      <c r="K79" s="10"/>
+      <c r="L79" s="10"/>
+      <c r="M79" s="10"/>
+      <c r="N79" s="10"/>
+      <c r="O79" s="10"/>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A80" s="17">
+      <c r="A80" s="15">
         <v>39</v>
       </c>
       <c r="B80" s="2"/>
@@ -2705,18 +3105,18 @@
       <c r="D80" s="2"/>
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
-      <c r="G80" s="12"/>
-      <c r="H80" s="12"/>
-      <c r="I80" s="12"/>
-      <c r="J80" s="12"/>
-      <c r="K80" s="12"/>
-      <c r="L80" s="12"/>
-      <c r="M80" s="12"/>
-      <c r="N80" s="12"/>
-      <c r="O80" s="12"/>
+      <c r="G80" s="10"/>
+      <c r="H80" s="10"/>
+      <c r="I80" s="10"/>
+      <c r="J80" s="10"/>
+      <c r="K80" s="10"/>
+      <c r="L80" s="10"/>
+      <c r="M80" s="10"/>
+      <c r="N80" s="10"/>
+      <c r="O80" s="10"/>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A81" s="17">
+      <c r="A81" s="15">
         <v>5</v>
       </c>
       <c r="B81" s="2"/>
@@ -2724,18 +3124,18 @@
       <c r="D81" s="2"/>
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
-      <c r="G81" s="12"/>
-      <c r="H81" s="12"/>
-      <c r="I81" s="12"/>
-      <c r="J81" s="12"/>
-      <c r="K81" s="12"/>
-      <c r="L81" s="12"/>
-      <c r="M81" s="12"/>
-      <c r="N81" s="12"/>
-      <c r="O81" s="12"/>
+      <c r="G81" s="10"/>
+      <c r="H81" s="10"/>
+      <c r="I81" s="10"/>
+      <c r="J81" s="10"/>
+      <c r="K81" s="10"/>
+      <c r="L81" s="10"/>
+      <c r="M81" s="10"/>
+      <c r="N81" s="10"/>
+      <c r="O81" s="10"/>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A82" s="17">
+      <c r="A82" s="15">
         <v>31</v>
       </c>
       <c r="B82" s="2"/>
@@ -2743,18 +3143,18 @@
       <c r="D82" s="2"/>
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
-      <c r="G82" s="12"/>
-      <c r="H82" s="12"/>
-      <c r="I82" s="12"/>
-      <c r="J82" s="12"/>
-      <c r="K82" s="12"/>
-      <c r="L82" s="12"/>
-      <c r="M82" s="12"/>
-      <c r="N82" s="12"/>
-      <c r="O82" s="12"/>
+      <c r="G82" s="10"/>
+      <c r="H82" s="10"/>
+      <c r="I82" s="10"/>
+      <c r="J82" s="10"/>
+      <c r="K82" s="10"/>
+      <c r="L82" s="10"/>
+      <c r="M82" s="10"/>
+      <c r="N82" s="10"/>
+      <c r="O82" s="10"/>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A83" s="17">
+      <c r="A83" s="15">
         <v>10</v>
       </c>
       <c r="B83" s="2"/>
@@ -2762,92 +3162,92 @@
       <c r="D83" s="2"/>
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
-      <c r="G83" s="12"/>
-      <c r="H83" s="12"/>
-      <c r="I83" s="12"/>
-      <c r="J83" s="12"/>
-      <c r="K83" s="12"/>
-      <c r="L83" s="12"/>
-      <c r="M83" s="12"/>
-      <c r="N83" s="12"/>
-      <c r="O83" s="12"/>
+      <c r="G83" s="10"/>
+      <c r="H83" s="10"/>
+      <c r="I83" s="10"/>
+      <c r="J83" s="10"/>
+      <c r="K83" s="10"/>
+      <c r="L83" s="10"/>
+      <c r="M83" s="10"/>
+      <c r="N83" s="10"/>
+      <c r="O83" s="10"/>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A85" s="25" t="s">
+      <c r="A85" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B85" s="26" t="s">
+      <c r="B85" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C85" s="27"/>
-      <c r="D85" s="28"/>
-      <c r="E85" s="7" t="s">
+      <c r="C85" s="22"/>
+      <c r="D85" s="23"/>
+      <c r="E85" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="F85" s="7"/>
-      <c r="G85" s="7" t="s">
+      <c r="F85" s="24"/>
+      <c r="G85" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H85" s="7"/>
-      <c r="I85" s="7"/>
-      <c r="J85" s="7"/>
-      <c r="K85" s="7"/>
-      <c r="L85" s="7" t="s">
+      <c r="H85" s="24"/>
+      <c r="I85" s="24"/>
+      <c r="J85" s="24"/>
+      <c r="K85" s="24"/>
+      <c r="L85" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="M85" s="7"/>
-      <c r="N85" s="7"/>
-      <c r="O85" s="7"/>
+      <c r="M85" s="24"/>
+      <c r="N85" s="24"/>
+      <c r="O85" s="24"/>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A86" s="8" t="s">
+      <c r="A86" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B86" s="8">
+      <c r="B86" s="7">
         <v>31</v>
       </c>
-      <c r="C86" s="8">
+      <c r="C86" s="7">
         <v>28</v>
       </c>
-      <c r="D86" s="8">
+      <c r="D86" s="7">
         <v>27</v>
       </c>
-      <c r="E86" s="9" t="s">
+      <c r="E86" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F86" s="9" t="s">
+      <c r="F86" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G86" s="10" t="s">
+      <c r="G86" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H86" s="10" t="s">
+      <c r="H86" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I86" s="10" t="s">
+      <c r="I86" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J86" s="10" t="s">
+      <c r="J86" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K86" s="10" t="s">
+      <c r="K86" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="L86" s="10" t="s">
+      <c r="L86" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="M86" s="10" t="s">
+      <c r="M86" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="N86" s="10" t="s">
+      <c r="N86" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="O86" s="10" t="s">
+      <c r="O86" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A87" s="11">
+      <c r="A87" s="9">
         <v>1</v>
       </c>
       <c r="B87" s="1">
@@ -2861,18 +3261,18 @@
       </c>
       <c r="E87" s="3"/>
       <c r="F87" s="3"/>
-      <c r="G87" s="12"/>
-      <c r="H87" s="12"/>
-      <c r="I87" s="12"/>
-      <c r="J87" s="12"/>
-      <c r="K87" s="12"/>
-      <c r="L87" s="12"/>
-      <c r="M87" s="12"/>
-      <c r="N87" s="12"/>
-      <c r="O87" s="12"/>
+      <c r="G87" s="10"/>
+      <c r="H87" s="10"/>
+      <c r="I87" s="10"/>
+      <c r="J87" s="10"/>
+      <c r="K87" s="10"/>
+      <c r="L87" s="10"/>
+      <c r="M87" s="10"/>
+      <c r="N87" s="10"/>
+      <c r="O87" s="10"/>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A88" s="14">
+      <c r="A88" s="12">
         <v>41</v>
       </c>
       <c r="B88" s="2">
@@ -2886,18 +3286,18 @@
       </c>
       <c r="E88" s="3"/>
       <c r="F88" s="3"/>
-      <c r="G88" s="12"/>
-      <c r="H88" s="12"/>
-      <c r="I88" s="12"/>
-      <c r="J88" s="12"/>
-      <c r="K88" s="12"/>
-      <c r="L88" s="12"/>
-      <c r="M88" s="12"/>
-      <c r="N88" s="12"/>
-      <c r="O88" s="12"/>
+      <c r="G88" s="10"/>
+      <c r="H88" s="10"/>
+      <c r="I88" s="10"/>
+      <c r="J88" s="10"/>
+      <c r="K88" s="10"/>
+      <c r="L88" s="10"/>
+      <c r="M88" s="10"/>
+      <c r="N88" s="10"/>
+      <c r="O88" s="10"/>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A89" s="15">
+      <c r="A89" s="13">
         <v>17</v>
       </c>
       <c r="B89" s="2">
@@ -2911,18 +3311,18 @@
       </c>
       <c r="E89" s="3"/>
       <c r="F89" s="3"/>
-      <c r="G89" s="12"/>
-      <c r="H89" s="12"/>
-      <c r="I89" s="12"/>
-      <c r="J89" s="12"/>
-      <c r="K89" s="12"/>
-      <c r="L89" s="12"/>
-      <c r="M89" s="12"/>
-      <c r="N89" s="12"/>
-      <c r="O89" s="12"/>
+      <c r="G89" s="10"/>
+      <c r="H89" s="10"/>
+      <c r="I89" s="10"/>
+      <c r="J89" s="10"/>
+      <c r="K89" s="10"/>
+      <c r="L89" s="10"/>
+      <c r="M89" s="10"/>
+      <c r="N89" s="10"/>
+      <c r="O89" s="10"/>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A90" s="15">
+      <c r="A90" s="13">
         <v>29</v>
       </c>
       <c r="B90" s="2">
@@ -2936,18 +3336,18 @@
       </c>
       <c r="E90" s="3"/>
       <c r="F90" s="3"/>
-      <c r="G90" s="12"/>
-      <c r="H90" s="12"/>
-      <c r="I90" s="12"/>
-      <c r="J90" s="12"/>
-      <c r="K90" s="12"/>
-      <c r="L90" s="12"/>
-      <c r="M90" s="12"/>
-      <c r="N90" s="12"/>
-      <c r="O90" s="12"/>
+      <c r="G90" s="10"/>
+      <c r="H90" s="10"/>
+      <c r="I90" s="10"/>
+      <c r="J90" s="10"/>
+      <c r="K90" s="10"/>
+      <c r="L90" s="10"/>
+      <c r="M90" s="10"/>
+      <c r="N90" s="10"/>
+      <c r="O90" s="10"/>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A91" s="15">
+      <c r="A91" s="13">
         <v>14</v>
       </c>
       <c r="B91" s="2" t="s">
@@ -2961,18 +3361,18 @@
       </c>
       <c r="E91" s="3"/>
       <c r="F91" s="3"/>
-      <c r="G91" s="12"/>
-      <c r="H91" s="12"/>
-      <c r="I91" s="12"/>
-      <c r="J91" s="12"/>
-      <c r="K91" s="12"/>
-      <c r="L91" s="12"/>
-      <c r="M91" s="12"/>
-      <c r="N91" s="12"/>
-      <c r="O91" s="12"/>
+      <c r="G91" s="10"/>
+      <c r="H91" s="10"/>
+      <c r="I91" s="10"/>
+      <c r="J91" s="10"/>
+      <c r="K91" s="10"/>
+      <c r="L91" s="10"/>
+      <c r="M91" s="10"/>
+      <c r="N91" s="10"/>
+      <c r="O91" s="10"/>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A92" s="16">
+      <c r="A92" s="14">
         <v>119</v>
       </c>
       <c r="B92" s="2">
@@ -2986,18 +3386,18 @@
       </c>
       <c r="E92" s="3"/>
       <c r="F92" s="3"/>
-      <c r="G92" s="12"/>
-      <c r="H92" s="12"/>
-      <c r="I92" s="12"/>
-      <c r="J92" s="12"/>
-      <c r="K92" s="12"/>
-      <c r="L92" s="12"/>
-      <c r="M92" s="12"/>
-      <c r="N92" s="12"/>
-      <c r="O92" s="12"/>
+      <c r="G92" s="10"/>
+      <c r="H92" s="10"/>
+      <c r="I92" s="10"/>
+      <c r="J92" s="10"/>
+      <c r="K92" s="10"/>
+      <c r="L92" s="10"/>
+      <c r="M92" s="10"/>
+      <c r="N92" s="10"/>
+      <c r="O92" s="10"/>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A93" s="16">
+      <c r="A93" s="14">
         <v>45</v>
       </c>
       <c r="B93" s="2">
@@ -3011,18 +3411,18 @@
       </c>
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
-      <c r="G93" s="12"/>
-      <c r="H93" s="12"/>
-      <c r="I93" s="12"/>
-      <c r="J93" s="12"/>
-      <c r="K93" s="12"/>
-      <c r="L93" s="12"/>
-      <c r="M93" s="12"/>
-      <c r="N93" s="12"/>
-      <c r="O93" s="12"/>
+      <c r="G93" s="10"/>
+      <c r="H93" s="10"/>
+      <c r="I93" s="10"/>
+      <c r="J93" s="10"/>
+      <c r="K93" s="10"/>
+      <c r="L93" s="10"/>
+      <c r="M93" s="10"/>
+      <c r="N93" s="10"/>
+      <c r="O93" s="10"/>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A94" s="16">
+      <c r="A94" s="14">
         <v>20</v>
       </c>
       <c r="B94" s="2">
@@ -3036,18 +3436,18 @@
       </c>
       <c r="E94" s="3"/>
       <c r="F94" s="3"/>
-      <c r="G94" s="12"/>
-      <c r="H94" s="12"/>
-      <c r="I94" s="12"/>
-      <c r="J94" s="12"/>
-      <c r="K94" s="12"/>
-      <c r="L94" s="12"/>
-      <c r="M94" s="12"/>
-      <c r="N94" s="12"/>
-      <c r="O94" s="12"/>
+      <c r="G94" s="10"/>
+      <c r="H94" s="10"/>
+      <c r="I94" s="10"/>
+      <c r="J94" s="10"/>
+      <c r="K94" s="10"/>
+      <c r="L94" s="10"/>
+      <c r="M94" s="10"/>
+      <c r="N94" s="10"/>
+      <c r="O94" s="10"/>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A95" s="16">
+      <c r="A95" s="14">
         <v>34</v>
       </c>
       <c r="B95" s="2">
@@ -3061,18 +3461,18 @@
       </c>
       <c r="E95" s="4"/>
       <c r="F95" s="3"/>
-      <c r="G95" s="12"/>
-      <c r="H95" s="12"/>
-      <c r="I95" s="12"/>
-      <c r="J95" s="12"/>
-      <c r="K95" s="12"/>
-      <c r="L95" s="12"/>
-      <c r="M95" s="12"/>
-      <c r="N95" s="12"/>
-      <c r="O95" s="12"/>
+      <c r="G95" s="10"/>
+      <c r="H95" s="10"/>
+      <c r="I95" s="10"/>
+      <c r="J95" s="10"/>
+      <c r="K95" s="10"/>
+      <c r="L95" s="10"/>
+      <c r="M95" s="10"/>
+      <c r="N95" s="10"/>
+      <c r="O95" s="10"/>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A96" s="17">
+      <c r="A96" s="15">
         <v>64</v>
       </c>
       <c r="B96" s="2">
@@ -3086,18 +3486,18 @@
       </c>
       <c r="E96" s="3"/>
       <c r="F96" s="3"/>
-      <c r="G96" s="12"/>
-      <c r="H96" s="12"/>
-      <c r="I96" s="12"/>
-      <c r="J96" s="12"/>
-      <c r="K96" s="12"/>
-      <c r="L96" s="12"/>
-      <c r="M96" s="12"/>
-      <c r="N96" s="12"/>
-      <c r="O96" s="12"/>
+      <c r="G96" s="10"/>
+      <c r="H96" s="10"/>
+      <c r="I96" s="10"/>
+      <c r="J96" s="10"/>
+      <c r="K96" s="10"/>
+      <c r="L96" s="10"/>
+      <c r="M96" s="10"/>
+      <c r="N96" s="10"/>
+      <c r="O96" s="10"/>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A97" s="17">
+      <c r="A97" s="15">
         <v>56</v>
       </c>
       <c r="B97" s="2">
@@ -3111,18 +3511,18 @@
       </c>
       <c r="E97" s="3"/>
       <c r="F97" s="3"/>
-      <c r="G97" s="12"/>
-      <c r="H97" s="12"/>
-      <c r="I97" s="12"/>
-      <c r="J97" s="12"/>
-      <c r="K97" s="12"/>
-      <c r="L97" s="12"/>
-      <c r="M97" s="12"/>
-      <c r="N97" s="12"/>
-      <c r="O97" s="12"/>
+      <c r="G97" s="10"/>
+      <c r="H97" s="10"/>
+      <c r="I97" s="10"/>
+      <c r="J97" s="10"/>
+      <c r="K97" s="10"/>
+      <c r="L97" s="10"/>
+      <c r="M97" s="10"/>
+      <c r="N97" s="10"/>
+      <c r="O97" s="10"/>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A98" s="17">
+      <c r="A98" s="15">
         <v>78</v>
       </c>
       <c r="B98" s="2">
@@ -3136,18 +3536,18 @@
       </c>
       <c r="E98" s="3"/>
       <c r="F98" s="3"/>
-      <c r="G98" s="12"/>
-      <c r="H98" s="12"/>
-      <c r="I98" s="12"/>
-      <c r="J98" s="12"/>
-      <c r="K98" s="12"/>
-      <c r="L98" s="12"/>
-      <c r="M98" s="12"/>
-      <c r="N98" s="12"/>
-      <c r="O98" s="12"/>
+      <c r="G98" s="10"/>
+      <c r="H98" s="10"/>
+      <c r="I98" s="10"/>
+      <c r="J98" s="10"/>
+      <c r="K98" s="10"/>
+      <c r="L98" s="10"/>
+      <c r="M98" s="10"/>
+      <c r="N98" s="10"/>
+      <c r="O98" s="10"/>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A99" s="18">
+      <c r="A99" s="16">
         <v>2</v>
       </c>
       <c r="B99" s="2" t="s">
@@ -3161,18 +3561,18 @@
       </c>
       <c r="E99" s="3"/>
       <c r="F99" s="3"/>
-      <c r="G99" s="12"/>
-      <c r="H99" s="12"/>
-      <c r="I99" s="12"/>
-      <c r="J99" s="12"/>
-      <c r="K99" s="12"/>
-      <c r="L99" s="12"/>
-      <c r="M99" s="12"/>
-      <c r="N99" s="12"/>
-      <c r="O99" s="12"/>
+      <c r="G99" s="10"/>
+      <c r="H99" s="10"/>
+      <c r="I99" s="10"/>
+      <c r="J99" s="10"/>
+      <c r="K99" s="10"/>
+      <c r="L99" s="10"/>
+      <c r="M99" s="10"/>
+      <c r="N99" s="10"/>
+      <c r="O99" s="10"/>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A100" s="18">
+      <c r="A100" s="16">
         <v>14</v>
       </c>
       <c r="B100" s="2" t="s">
@@ -3186,18 +3586,18 @@
       </c>
       <c r="E100" s="3"/>
       <c r="F100" s="3"/>
-      <c r="G100" s="12"/>
-      <c r="H100" s="12"/>
-      <c r="I100" s="12"/>
-      <c r="J100" s="12"/>
-      <c r="K100" s="12"/>
-      <c r="L100" s="12"/>
-      <c r="M100" s="12"/>
-      <c r="N100" s="12"/>
-      <c r="O100" s="12"/>
+      <c r="G100" s="10"/>
+      <c r="H100" s="10"/>
+      <c r="I100" s="10"/>
+      <c r="J100" s="10"/>
+      <c r="K100" s="10"/>
+      <c r="L100" s="10"/>
+      <c r="M100" s="10"/>
+      <c r="N100" s="10"/>
+      <c r="O100" s="10"/>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A101" s="18">
+      <c r="A101" s="16">
         <v>43</v>
       </c>
       <c r="B101" s="2" t="s">
@@ -3211,18 +3611,18 @@
       </c>
       <c r="E101" s="3"/>
       <c r="F101" s="3"/>
-      <c r="G101" s="12"/>
-      <c r="H101" s="12"/>
-      <c r="I101" s="12"/>
-      <c r="J101" s="12"/>
-      <c r="K101" s="12"/>
-      <c r="L101" s="12"/>
-      <c r="M101" s="12"/>
-      <c r="N101" s="12"/>
-      <c r="O101" s="12"/>
+      <c r="G101" s="10"/>
+      <c r="H101" s="10"/>
+      <c r="I101" s="10"/>
+      <c r="J101" s="10"/>
+      <c r="K101" s="10"/>
+      <c r="L101" s="10"/>
+      <c r="M101" s="10"/>
+      <c r="N101" s="10"/>
+      <c r="O101" s="10"/>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A102" s="18">
+      <c r="A102" s="16">
         <v>58</v>
       </c>
       <c r="B102" s="2">
@@ -3236,19 +3636,23 @@
       </c>
       <c r="E102" s="3"/>
       <c r="F102" s="3"/>
-      <c r="G102" s="12"/>
-      <c r="H102" s="12"/>
-      <c r="I102" s="12"/>
-      <c r="J102" s="12"/>
-      <c r="K102" s="12"/>
-      <c r="L102" s="12"/>
-      <c r="M102" s="12"/>
-      <c r="N102" s="12"/>
-      <c r="O102" s="12"/>
+      <c r="G102" s="10"/>
+      <c r="H102" s="10"/>
+      <c r="I102" s="10"/>
+      <c r="J102" s="10"/>
+      <c r="K102" s="10"/>
+      <c r="L102" s="10"/>
+      <c r="M102" s="10"/>
+      <c r="N102" s="10"/>
+      <c r="O102" s="10"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="16">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="L1:O1"/>
     <mergeCell ref="B85:D85"/>
     <mergeCell ref="E85:F85"/>
     <mergeCell ref="G85:K85"/>
@@ -3261,10 +3665,6 @@
     <mergeCell ref="E65:F65"/>
     <mergeCell ref="G65:K65"/>
     <mergeCell ref="L65:O65"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="L1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Surveys/08_09_2022_Tracer_Survey.xlsx
+++ b/Surveys/08_09_2022_Tracer_Survey.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tacob\Documents\GitHub\RFID_tracers\Surveys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{133C9DCD-9F74-4065-8C4B-7A4051FEB5B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DEB591B-1C35-4E6E-99EA-3BA1D36B8342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B2B2A732-FF08-4044-9D28-51D663EBD29D}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="28">
   <si>
     <t>Rock #</t>
   </si>
@@ -114,6 +115,12 @@
   <si>
     <t>Nicole Revisit.</t>
   </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>No Distinct Triangle.</t>
+  </si>
 </sst>
 </file>
 
@@ -142,7 +149,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -212,6 +219,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,7 +306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -353,6 +366,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -360,9 +382,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -375,9 +394,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -696,8 +712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F533EF27-28D8-47A3-9C46-B406200BBC5B}">
   <dimension ref="A1:O102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I103" sqref="I103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -706,7 +722,7 @@
     <col min="5" max="5" width="12.77734375" customWidth="1"/>
     <col min="6" max="6" width="15.109375" customWidth="1"/>
     <col min="8" max="8" width="11.88671875" customWidth="1"/>
-    <col min="15" max="15" width="17" customWidth="1"/>
+    <col min="15" max="15" width="18.21875" customWidth="1"/>
     <col min="21" max="21" width="12.109375" customWidth="1"/>
     <col min="22" max="22" width="13.44140625" customWidth="1"/>
   </cols>
@@ -715,28 +731,28 @@
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="24" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24" t="s">
+      <c r="F1" s="23"/>
+      <c r="G1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24" t="s">
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
@@ -2158,28 +2174,28 @@
       <c r="A43" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B43" s="25" t="s">
+      <c r="B43" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="24" t="s">
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24" t="s">
+      <c r="F43" s="23"/>
+      <c r="G43" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="H43" s="24"/>
-      <c r="I43" s="24"/>
-      <c r="J43" s="24"/>
-      <c r="K43" s="24"/>
-      <c r="L43" s="24" t="s">
+      <c r="H43" s="23"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="23"/>
+      <c r="K43" s="23"/>
+      <c r="L43" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="M43" s="24"/>
-      <c r="N43" s="24"/>
-      <c r="O43" s="24"/>
+      <c r="M43" s="23"/>
+      <c r="N43" s="23"/>
+      <c r="O43" s="23"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
@@ -2266,13 +2282,27 @@
       <c r="D46" s="2">
         <v>2.75</v>
       </c>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10"/>
+      <c r="E46" s="3">
+        <v>475232.21899999998</v>
+      </c>
+      <c r="F46" s="3">
+        <v>539954.53599999996</v>
+      </c>
+      <c r="G46" s="10">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="H46" s="10">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="I46" s="10">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="J46" s="10">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="K46" s="10">
+        <v>0.26100000000000001</v>
+      </c>
       <c r="L46" s="10"/>
       <c r="M46" s="10"/>
       <c r="N46" s="10"/>
@@ -2291,13 +2321,27 @@
       <c r="D47" s="2">
         <v>3.0419999999999998</v>
       </c>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="10"/>
+      <c r="E47" s="3">
+        <v>475232.75099999999</v>
+      </c>
+      <c r="F47" s="3">
+        <v>539954.52800000005</v>
+      </c>
+      <c r="G47" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="H47" s="10">
+        <v>1.323</v>
+      </c>
+      <c r="I47" s="10">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="J47" s="10">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="K47" s="10">
+        <v>0.59499999999999997</v>
+      </c>
       <c r="L47" s="10"/>
       <c r="M47" s="10"/>
       <c r="N47" s="10"/>
@@ -2316,13 +2360,27 @@
       <c r="D48" s="2">
         <v>3.6</v>
       </c>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10"/>
-      <c r="K48" s="10"/>
+      <c r="E48" s="3">
+        <v>475233.13900000002</v>
+      </c>
+      <c r="F48" s="3">
+        <v>539954.63500000001</v>
+      </c>
+      <c r="G48" s="10">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="H48" s="10">
+        <v>3.1309999999999998</v>
+      </c>
+      <c r="I48" s="10">
+        <v>0.128</v>
+      </c>
+      <c r="J48" s="10">
+        <v>0.125</v>
+      </c>
+      <c r="K48" s="10">
+        <v>1.2569999999999999</v>
+      </c>
       <c r="L48" s="10"/>
       <c r="M48" s="10"/>
       <c r="N48" s="10"/>
@@ -2341,13 +2399,27 @@
       <c r="D49" s="2">
         <v>3.38</v>
       </c>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
-      <c r="K49" s="10"/>
+      <c r="E49" s="3">
+        <v>475232.8</v>
+      </c>
+      <c r="F49" s="3">
+        <v>539954.63</v>
+      </c>
+      <c r="G49" s="10">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="H49" s="10">
+        <v>2.8079999999999998</v>
+      </c>
+      <c r="I49" s="10">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="J49" s="10">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="K49" s="10">
+        <v>1.2669999999999999</v>
+      </c>
       <c r="L49" s="10"/>
       <c r="M49" s="10"/>
       <c r="N49" s="10"/>
@@ -2366,13 +2438,27 @@
       <c r="D50" s="2">
         <v>3.11</v>
       </c>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="10"/>
-      <c r="K50" s="10"/>
+      <c r="E50" s="3">
+        <v>475232.66200000001</v>
+      </c>
+      <c r="F50" s="3">
+        <v>539954.58600000001</v>
+      </c>
+      <c r="G50" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="H50" s="10">
+        <v>1.6339999999999999</v>
+      </c>
+      <c r="I50" s="10">
+        <v>0.106</v>
+      </c>
+      <c r="J50" s="10">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="K50" s="10">
+        <v>0.751</v>
+      </c>
       <c r="L50" s="10"/>
       <c r="M50" s="10"/>
       <c r="N50" s="10"/>
@@ -2391,13 +2477,27 @@
       <c r="D51" s="2">
         <v>2.82</v>
       </c>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="10"/>
-      <c r="K51" s="10"/>
+      <c r="E51" s="3">
+        <v>475232.05200000003</v>
+      </c>
+      <c r="F51" s="3">
+        <v>539954.63600000006</v>
+      </c>
+      <c r="G51" s="10">
+        <v>1.2E-2</v>
+      </c>
+      <c r="H51" s="10">
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="I51" s="10">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="J51" s="10">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="K51" s="10">
+        <v>0.29799999999999999</v>
+      </c>
       <c r="L51" s="10"/>
       <c r="M51" s="10"/>
       <c r="N51" s="10"/>
@@ -2441,13 +2541,27 @@
       <c r="D53" s="2">
         <v>3.42</v>
       </c>
-      <c r="E53" s="4"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="10"/>
-      <c r="K53" s="10"/>
+      <c r="E53" s="4">
+        <v>475232.84600000002</v>
+      </c>
+      <c r="F53" s="3">
+        <v>539954.64599999995</v>
+      </c>
+      <c r="G53" s="10">
+        <v>0.105</v>
+      </c>
+      <c r="H53" s="10">
+        <v>2.7989999999999999</v>
+      </c>
+      <c r="I53" s="10">
+        <v>0.158</v>
+      </c>
+      <c r="J53" s="10">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="K53" s="10">
+        <v>1.286</v>
+      </c>
       <c r="L53" s="10"/>
       <c r="M53" s="10"/>
       <c r="N53" s="10"/>
@@ -2466,13 +2580,27 @@
       <c r="D54" s="2">
         <v>2.65</v>
       </c>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="10"/>
-      <c r="I54" s="10"/>
-      <c r="J54" s="10"/>
-      <c r="K54" s="10"/>
+      <c r="E54" s="3">
+        <v>475232.47899999999</v>
+      </c>
+      <c r="F54" s="3">
+        <v>539954.56200000003</v>
+      </c>
+      <c r="G54" s="10">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H54" s="10">
+        <v>0.75700000000000001</v>
+      </c>
+      <c r="I54" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="J54" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="K54" s="10">
+        <v>0.35399999999999998</v>
+      </c>
       <c r="L54" s="10"/>
       <c r="M54" s="10"/>
       <c r="N54" s="10"/>
@@ -2491,13 +2619,27 @@
       <c r="D55" s="2">
         <v>2.65</v>
       </c>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="10"/>
-      <c r="I55" s="10"/>
-      <c r="J55" s="10"/>
-      <c r="K55" s="10"/>
+      <c r="E55" s="3">
+        <v>475232.47899999999</v>
+      </c>
+      <c r="F55" s="3">
+        <v>539954.56200000003</v>
+      </c>
+      <c r="G55" s="10">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H55" s="10">
+        <v>0.75700000000000001</v>
+      </c>
+      <c r="I55" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="J55" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="K55" s="10">
+        <v>0.35399999999999998</v>
+      </c>
       <c r="L55" s="10"/>
       <c r="M55" s="10"/>
       <c r="N55" s="10"/>
@@ -2516,13 +2658,27 @@
       <c r="D56" s="2">
         <v>3.31</v>
       </c>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="10"/>
-      <c r="H56" s="10"/>
-      <c r="I56" s="10"/>
-      <c r="J56" s="10"/>
-      <c r="K56" s="10"/>
+      <c r="E56" s="3">
+        <v>475232.902</v>
+      </c>
+      <c r="F56" s="3">
+        <v>539954.61600000004</v>
+      </c>
+      <c r="G56" s="10">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H56" s="10">
+        <v>2.0329999999999999</v>
+      </c>
+      <c r="I56" s="10">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="J56" s="10">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="K56" s="10">
+        <v>0.96199999999999997</v>
+      </c>
       <c r="L56" s="10"/>
       <c r="M56" s="10"/>
       <c r="N56" s="10"/>
@@ -2591,13 +2747,27 @@
       <c r="D59" s="2">
         <v>3.35</v>
       </c>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="10"/>
-      <c r="H59" s="10"/>
-      <c r="I59" s="10"/>
-      <c r="J59" s="10"/>
-      <c r="K59" s="10"/>
+      <c r="E59" s="3">
+        <v>475232.70899999997</v>
+      </c>
+      <c r="F59" s="3">
+        <v>539954.66500000004</v>
+      </c>
+      <c r="G59" s="10">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="H59" s="10">
+        <v>2.569</v>
+      </c>
+      <c r="I59" s="10">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="J59" s="10">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="K59" s="10">
+        <v>1.1970000000000001</v>
+      </c>
       <c r="L59" s="10"/>
       <c r="M59" s="10"/>
       <c r="N59" s="10"/>
@@ -2616,13 +2786,27 @@
       <c r="D60" s="2">
         <v>3.36</v>
       </c>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="10"/>
-      <c r="H60" s="10"/>
-      <c r="I60" s="10"/>
-      <c r="J60" s="10"/>
-      <c r="K60" s="10"/>
+      <c r="E60" s="3">
+        <v>475232.77799999999</v>
+      </c>
+      <c r="F60" s="3">
+        <v>539954.66099999996</v>
+      </c>
+      <c r="G60" s="10">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="H60" s="10">
+        <v>2.444</v>
+      </c>
+      <c r="I60" s="10">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="J60" s="10">
+        <v>0.09</v>
+      </c>
+      <c r="K60" s="10">
+        <v>1.1539999999999999</v>
+      </c>
       <c r="L60" s="10"/>
       <c r="M60" s="10"/>
       <c r="N60" s="10"/>
@@ -2666,13 +2850,27 @@
       <c r="D62" s="2">
         <v>3.2</v>
       </c>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="10"/>
-      <c r="H62" s="10"/>
-      <c r="I62" s="10"/>
-      <c r="J62" s="10"/>
-      <c r="K62" s="10"/>
+      <c r="E62" s="3">
+        <v>475232.99</v>
+      </c>
+      <c r="F62" s="3">
+        <v>539954.53799999994</v>
+      </c>
+      <c r="G62" s="10">
+        <v>2.3E-2</v>
+      </c>
+      <c r="H62" s="10">
+        <v>1.54</v>
+      </c>
+      <c r="I62" s="10">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="J62" s="10">
+        <v>6.3E-2</v>
+      </c>
+      <c r="K62" s="10">
+        <v>0.70699999999999996</v>
+      </c>
       <c r="L62" s="10"/>
       <c r="M62" s="10"/>
       <c r="N62" s="10"/>
@@ -2691,13 +2889,27 @@
       <c r="D63" s="2">
         <v>2.74</v>
       </c>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="10"/>
-      <c r="H63" s="10"/>
-      <c r="I63" s="10"/>
-      <c r="J63" s="10"/>
-      <c r="K63" s="10"/>
+      <c r="E63" s="3">
+        <v>475232.00699999998</v>
+      </c>
+      <c r="F63" s="3">
+        <v>539954.603</v>
+      </c>
+      <c r="G63" s="10">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H63" s="10">
+        <v>0.434</v>
+      </c>
+      <c r="I63" s="10">
+        <v>6.3E-2</v>
+      </c>
+      <c r="J63" s="10">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="K63" s="10">
+        <v>0.17899999999999999</v>
+      </c>
       <c r="L63" s="10"/>
       <c r="M63" s="10"/>
       <c r="N63" s="10"/>
@@ -2707,28 +2919,28 @@
       <c r="A65" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B65" s="26" t="s">
+      <c r="B65" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C65" s="27"/>
-      <c r="D65" s="28"/>
-      <c r="E65" s="24" t="s">
+      <c r="C65" s="29"/>
+      <c r="D65" s="30"/>
+      <c r="E65" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F65" s="24"/>
-      <c r="G65" s="24" t="s">
+      <c r="F65" s="23"/>
+      <c r="G65" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="H65" s="24"/>
-      <c r="I65" s="24"/>
-      <c r="J65" s="24"/>
-      <c r="K65" s="24"/>
-      <c r="L65" s="24" t="s">
+      <c r="H65" s="23"/>
+      <c r="I65" s="23"/>
+      <c r="J65" s="23"/>
+      <c r="K65" s="23"/>
+      <c r="L65" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="M65" s="24"/>
-      <c r="N65" s="24"/>
-      <c r="O65" s="24"/>
+      <c r="M65" s="23"/>
+      <c r="N65" s="23"/>
+      <c r="O65" s="23"/>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" s="7" t="s">
@@ -2774,7 +2986,7 @@
         <v>15</v>
       </c>
       <c r="O66" s="6" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.3">
@@ -2790,13 +3002,27 @@
       <c r="D67" s="2">
         <v>0.41</v>
       </c>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="10"/>
-      <c r="H67" s="10"/>
-      <c r="I67" s="10"/>
-      <c r="J67" s="10"/>
-      <c r="K67" s="10"/>
+      <c r="E67" s="3">
+        <v>475235.18699999998</v>
+      </c>
+      <c r="F67" s="3">
+        <v>539959.63100000005</v>
+      </c>
+      <c r="G67" s="10">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H67" s="10">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="I67" s="10">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J67" s="10">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="K67" s="10">
+        <v>8.5999999999999993E-2</v>
+      </c>
       <c r="L67" s="10"/>
       <c r="M67" s="10"/>
       <c r="N67" s="10"/>
@@ -2815,13 +3041,27 @@
       <c r="D68" s="2">
         <v>0.69</v>
       </c>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="10"/>
-      <c r="H68" s="10"/>
-      <c r="I68" s="10"/>
-      <c r="J68" s="10"/>
-      <c r="K68" s="10"/>
+      <c r="E68" s="3">
+        <v>475235.43199999997</v>
+      </c>
+      <c r="F68" s="3">
+        <v>539959.98600000003</v>
+      </c>
+      <c r="G68" s="10">
+        <v>0</v>
+      </c>
+      <c r="H68" s="10">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="I68" s="10">
+        <v>2E-3</v>
+      </c>
+      <c r="J68" s="10">
+        <v>2E-3</v>
+      </c>
+      <c r="K68" s="10">
+        <v>0.2</v>
+      </c>
       <c r="L68" s="10"/>
       <c r="M68" s="10"/>
       <c r="N68" s="10"/>
@@ -2840,13 +3080,27 @@
       <c r="D69" s="2">
         <v>0.84</v>
       </c>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="10"/>
-      <c r="H69" s="10"/>
-      <c r="I69" s="10"/>
-      <c r="J69" s="10"/>
-      <c r="K69" s="10"/>
+      <c r="E69" s="3">
+        <v>475235.52100000001</v>
+      </c>
+      <c r="F69" s="3">
+        <v>539960.05700000003</v>
+      </c>
+      <c r="G69" s="10">
+        <v>1.4E-2</v>
+      </c>
+      <c r="H69" s="10">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="I69" s="10">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="J69" s="10">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="K69" s="10">
+        <v>0.41199999999999998</v>
+      </c>
       <c r="L69" s="10"/>
       <c r="M69" s="10"/>
       <c r="N69" s="10"/>
@@ -2865,13 +3119,27 @@
       <c r="D70" s="2">
         <v>0.68</v>
       </c>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="10"/>
-      <c r="H70" s="10"/>
-      <c r="I70" s="10"/>
-      <c r="J70" s="10"/>
-      <c r="K70" s="10"/>
+      <c r="E70" s="3">
+        <v>475235.38199999998</v>
+      </c>
+      <c r="F70" s="3">
+        <v>539959.40399999998</v>
+      </c>
+      <c r="G70" s="10">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="H70" s="10">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="I70" s="10">
+        <v>5.5E-2</v>
+      </c>
+      <c r="J70" s="10">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="K70" s="10">
+        <v>0.36299999999999999</v>
+      </c>
       <c r="L70" s="10"/>
       <c r="M70" s="10"/>
       <c r="N70" s="10"/>
@@ -2890,13 +3158,27 @@
       <c r="D71" s="2">
         <v>0.67</v>
       </c>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="10"/>
-      <c r="H71" s="10"/>
-      <c r="I71" s="10"/>
-      <c r="J71" s="10"/>
-      <c r="K71" s="10"/>
+      <c r="E71" s="3">
+        <v>475235.29100000003</v>
+      </c>
+      <c r="F71" s="3">
+        <v>539959.37199999997</v>
+      </c>
+      <c r="G71" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="H71" s="10">
+        <v>1.359</v>
+      </c>
+      <c r="I71" s="10">
+        <v>6.2E-2</v>
+      </c>
+      <c r="J71" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="K71" s="10">
+        <v>0.61399999999999999</v>
+      </c>
       <c r="L71" s="10"/>
       <c r="M71" s="10"/>
       <c r="N71" s="10"/>
@@ -2915,13 +3197,27 @@
       <c r="D72" s="2">
         <v>0.61</v>
       </c>
-      <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="10"/>
-      <c r="H72" s="10"/>
-      <c r="I72" s="10"/>
-      <c r="J72" s="10"/>
-      <c r="K72" s="10"/>
+      <c r="E72" s="3">
+        <v>475235.11800000002</v>
+      </c>
+      <c r="F72" s="3">
+        <v>539959.41099999996</v>
+      </c>
+      <c r="G72" s="10">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="H72" s="10">
+        <v>1.84</v>
+      </c>
+      <c r="I72" s="10">
+        <v>7.8E-2</v>
+      </c>
+      <c r="J72" s="10">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="K72" s="10">
+        <v>0.81499999999999995</v>
+      </c>
       <c r="L72" s="10"/>
       <c r="M72" s="10"/>
       <c r="N72" s="10"/>
@@ -2950,7 +3246,9 @@
       <c r="L73" s="10"/>
       <c r="M73" s="10"/>
       <c r="N73" s="10"/>
-      <c r="O73" s="10"/>
+      <c r="O73" s="10" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" s="14">
@@ -2984,13 +3282,27 @@
       <c r="D75" s="2">
         <v>0.73</v>
       </c>
-      <c r="E75" s="4"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="10"/>
-      <c r="H75" s="10"/>
-      <c r="I75" s="10"/>
-      <c r="J75" s="10"/>
-      <c r="K75" s="10"/>
+      <c r="E75" s="4">
+        <v>475235.52</v>
+      </c>
+      <c r="F75" s="3">
+        <v>539959.77899999998</v>
+      </c>
+      <c r="G75" s="10">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H75" s="10">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="I75" s="10">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="J75" s="10">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="K75" s="10">
+        <v>5.2999999999999999E-2</v>
+      </c>
       <c r="L75" s="10"/>
       <c r="M75" s="10"/>
       <c r="N75" s="10"/>
@@ -3009,13 +3321,27 @@
       <c r="D76" s="2">
         <v>0.93</v>
       </c>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="10"/>
-      <c r="H76" s="10"/>
-      <c r="I76" s="10"/>
-      <c r="J76" s="10"/>
-      <c r="K76" s="10"/>
+      <c r="E76" s="3">
+        <v>475235.28600000002</v>
+      </c>
+      <c r="F76" s="3">
+        <v>539959.23800000001</v>
+      </c>
+      <c r="G76" s="10">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="H76" s="10">
+        <v>2.7410000000000001</v>
+      </c>
+      <c r="I76" s="10">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="J76" s="10">
+        <v>0.09</v>
+      </c>
+      <c r="K76" s="10">
+        <v>1.284</v>
+      </c>
       <c r="L76" s="10"/>
       <c r="M76" s="10"/>
       <c r="N76" s="10"/>
@@ -3044,7 +3370,9 @@
       <c r="L77" s="10"/>
       <c r="M77" s="10"/>
       <c r="N77" s="10"/>
-      <c r="O77" s="10"/>
+      <c r="O77" s="10" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" s="15">
@@ -3059,13 +3387,27 @@
       <c r="D78" s="2">
         <v>0.83</v>
       </c>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="10"/>
-      <c r="H78" s="10"/>
-      <c r="I78" s="10"/>
-      <c r="J78" s="10"/>
-      <c r="K78" s="10"/>
+      <c r="E78" s="3">
+        <v>475235.54300000001</v>
+      </c>
+      <c r="F78" s="3">
+        <v>539959.44999999995</v>
+      </c>
+      <c r="G78" s="21">
+        <v>2.4E-2</v>
+      </c>
+      <c r="H78" s="21">
+        <v>0.876</v>
+      </c>
+      <c r="I78" s="10">
+        <v>0.125</v>
+      </c>
+      <c r="J78" s="10">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="K78" s="10">
+        <v>0.34699999999999998</v>
+      </c>
       <c r="L78" s="10"/>
       <c r="M78" s="10"/>
       <c r="N78" s="10"/>
@@ -3084,13 +3426,27 @@
       <c r="D79" s="2">
         <v>0.62</v>
       </c>
-      <c r="E79" s="3"/>
-      <c r="F79" s="3"/>
-      <c r="G79" s="10"/>
-      <c r="H79" s="10"/>
-      <c r="I79" s="10"/>
-      <c r="J79" s="10"/>
-      <c r="K79" s="10"/>
+      <c r="E79" s="3">
+        <v>475235.147</v>
+      </c>
+      <c r="F79" s="3">
+        <v>539959.37199999997</v>
+      </c>
+      <c r="G79" s="10">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="H79" s="10">
+        <v>1.7370000000000001</v>
+      </c>
+      <c r="I79" s="10">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="J79" s="10">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="K79" s="10">
+        <v>0.80700000000000005</v>
+      </c>
       <c r="L79" s="10"/>
       <c r="M79" s="10"/>
       <c r="N79" s="10"/>
@@ -3176,28 +3532,28 @@
       <c r="A85" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B85" s="21" t="s">
+      <c r="B85" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C85" s="22"/>
-      <c r="D85" s="23"/>
-      <c r="E85" s="24" t="s">
+      <c r="C85" s="25"/>
+      <c r="D85" s="26"/>
+      <c r="E85" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F85" s="24"/>
-      <c r="G85" s="24" t="s">
+      <c r="F85" s="23"/>
+      <c r="G85" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="H85" s="24"/>
-      <c r="I85" s="24"/>
-      <c r="J85" s="24"/>
-      <c r="K85" s="24"/>
-      <c r="L85" s="24" t="s">
+      <c r="H85" s="23"/>
+      <c r="I85" s="23"/>
+      <c r="J85" s="23"/>
+      <c r="K85" s="23"/>
+      <c r="L85" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="M85" s="24"/>
-      <c r="N85" s="24"/>
-      <c r="O85" s="24"/>
+      <c r="M85" s="23"/>
+      <c r="N85" s="23"/>
+      <c r="O85" s="23"/>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" s="7" t="s">
@@ -3259,13 +3615,27 @@
       <c r="D87" s="1">
         <v>2.44</v>
       </c>
-      <c r="E87" s="3"/>
-      <c r="F87" s="3"/>
-      <c r="G87" s="10"/>
-      <c r="H87" s="10"/>
-      <c r="I87" s="10"/>
-      <c r="J87" s="10"/>
-      <c r="K87" s="10"/>
+      <c r="E87" s="3">
+        <v>475238.73100000003</v>
+      </c>
+      <c r="F87" s="3">
+        <v>539969.31700000004</v>
+      </c>
+      <c r="G87" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H87" s="10">
+        <v>0.39</v>
+      </c>
+      <c r="I87" s="10">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="J87" s="10">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="K87" s="10">
+        <v>7.9000000000000001E-2</v>
+      </c>
       <c r="L87" s="10"/>
       <c r="M87" s="10"/>
       <c r="N87" s="10"/>
@@ -3284,13 +3654,27 @@
       <c r="D88" s="2">
         <v>1.98</v>
       </c>
-      <c r="E88" s="3"/>
-      <c r="F88" s="3"/>
-      <c r="G88" s="10"/>
-      <c r="H88" s="10"/>
-      <c r="I88" s="10"/>
-      <c r="J88" s="10"/>
-      <c r="K88" s="10"/>
+      <c r="E88" s="3">
+        <v>475238.92200000002</v>
+      </c>
+      <c r="F88" s="3">
+        <v>539968.92000000004</v>
+      </c>
+      <c r="G88" s="10">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H88" s="10">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="I88" s="10">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="J88" s="10">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="K88" s="10">
+        <v>9.7000000000000003E-2</v>
+      </c>
       <c r="L88" s="10"/>
       <c r="M88" s="10"/>
       <c r="N88" s="10"/>
@@ -3309,13 +3693,27 @@
       <c r="D89" s="2">
         <v>2.2599999999999998</v>
       </c>
-      <c r="E89" s="3"/>
-      <c r="F89" s="3"/>
-      <c r="G89" s="10"/>
-      <c r="H89" s="10"/>
-      <c r="I89" s="10"/>
-      <c r="J89" s="10"/>
-      <c r="K89" s="10"/>
+      <c r="E89" s="3">
+        <v>475238.97</v>
+      </c>
+      <c r="F89" s="3">
+        <v>539969.24899999995</v>
+      </c>
+      <c r="G89" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="H89" s="10">
+        <v>0.125</v>
+      </c>
+      <c r="I89" s="10">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="J89" s="10">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="K89" s="10">
+        <v>2.4E-2</v>
+      </c>
       <c r="L89" s="10"/>
       <c r="M89" s="10"/>
       <c r="N89" s="10"/>
@@ -3334,13 +3732,27 @@
       <c r="D90" s="2">
         <v>2.13</v>
       </c>
-      <c r="E90" s="3"/>
-      <c r="F90" s="3"/>
-      <c r="G90" s="10"/>
-      <c r="H90" s="10"/>
-      <c r="I90" s="10"/>
-      <c r="J90" s="10"/>
-      <c r="K90" s="10"/>
+      <c r="E90" s="3">
+        <v>475238.68800000002</v>
+      </c>
+      <c r="F90" s="3">
+        <v>539968.96900000004</v>
+      </c>
+      <c r="G90" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H90" s="10">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="I90" s="10">
+        <v>7.8E-2</v>
+      </c>
+      <c r="J90" s="10">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="K90" s="10">
+        <v>9.4E-2</v>
+      </c>
       <c r="L90" s="10"/>
       <c r="M90" s="10"/>
       <c r="N90" s="10"/>
@@ -3384,13 +3796,27 @@
       <c r="D92" s="2">
         <v>2.0499999999999998</v>
       </c>
-      <c r="E92" s="3"/>
-      <c r="F92" s="3"/>
-      <c r="G92" s="10"/>
-      <c r="H92" s="10"/>
-      <c r="I92" s="10"/>
-      <c r="J92" s="10"/>
-      <c r="K92" s="10"/>
+      <c r="E92" s="3">
+        <v>475238.56699999998</v>
+      </c>
+      <c r="F92" s="3">
+        <v>539968.81599999999</v>
+      </c>
+      <c r="G92" s="10">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H92" s="10">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="I92" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="J92" s="10">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="K92" s="10">
+        <v>7.6999999999999999E-2</v>
+      </c>
       <c r="L92" s="10"/>
       <c r="M92" s="10"/>
       <c r="N92" s="10"/>
@@ -3409,13 +3835,27 @@
       <c r="D93" s="2">
         <v>1.93</v>
       </c>
-      <c r="E93" s="3"/>
-      <c r="F93" s="3"/>
-      <c r="G93" s="10"/>
-      <c r="H93" s="10"/>
-      <c r="I93" s="10"/>
-      <c r="J93" s="10"/>
-      <c r="K93" s="10"/>
+      <c r="E93" s="3">
+        <v>475238.99900000001</v>
+      </c>
+      <c r="F93" s="3">
+        <v>539968.85400000005</v>
+      </c>
+      <c r="G93" s="10">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H93" s="10">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="I93" s="10">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="J93" s="10">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="K93" s="10">
+        <v>0.26800000000000002</v>
+      </c>
       <c r="L93" s="10"/>
       <c r="M93" s="10"/>
       <c r="N93" s="10"/>
@@ -3434,13 +3874,27 @@
       <c r="D94" s="2">
         <v>1.98</v>
       </c>
-      <c r="E94" s="3"/>
-      <c r="F94" s="3"/>
-      <c r="G94" s="10"/>
-      <c r="H94" s="10"/>
-      <c r="I94" s="10"/>
-      <c r="J94" s="10"/>
-      <c r="K94" s="10"/>
+      <c r="E94" s="3">
+        <v>475238.625</v>
+      </c>
+      <c r="F94" s="3">
+        <v>539968.76800000004</v>
+      </c>
+      <c r="G94" s="10">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H94" s="10">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="I94" s="10">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="J94" s="10">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="K94" s="10">
+        <v>8.5000000000000006E-2</v>
+      </c>
       <c r="L94" s="10"/>
       <c r="M94" s="10"/>
       <c r="N94" s="10"/>
@@ -3459,13 +3913,27 @@
       <c r="D95" s="2">
         <v>2.4500000000000002</v>
       </c>
-      <c r="E95" s="4"/>
-      <c r="F95" s="3"/>
-      <c r="G95" s="10"/>
-      <c r="H95" s="10"/>
-      <c r="I95" s="10"/>
-      <c r="J95" s="10"/>
-      <c r="K95" s="10"/>
+      <c r="E95" s="4">
+        <v>475238.24400000001</v>
+      </c>
+      <c r="F95" s="3">
+        <v>539969.29</v>
+      </c>
+      <c r="G95" s="10">
+        <v>0</v>
+      </c>
+      <c r="H95" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="I95" s="10">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J95" s="10">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K95" s="10">
+        <v>1.2999999999999999E-2</v>
+      </c>
       <c r="L95" s="10"/>
       <c r="M95" s="10"/>
       <c r="N95" s="10"/>
@@ -3484,13 +3952,27 @@
       <c r="D96" s="2">
         <v>2.0499999999999998</v>
       </c>
-      <c r="E96" s="3"/>
-      <c r="F96" s="3"/>
-      <c r="G96" s="10"/>
-      <c r="H96" s="10"/>
-      <c r="I96" s="10"/>
-      <c r="J96" s="10"/>
-      <c r="K96" s="10"/>
+      <c r="E96" s="3">
+        <v>475238.62800000003</v>
+      </c>
+      <c r="F96" s="3">
+        <v>539968.84600000002</v>
+      </c>
+      <c r="G96" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H96" s="10">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="I96" s="10">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="J96" s="10">
+        <v>9.4E-2</v>
+      </c>
+      <c r="K96" s="10">
+        <v>9.5000000000000001E-2</v>
+      </c>
       <c r="L96" s="10"/>
       <c r="M96" s="10"/>
       <c r="N96" s="10"/>
@@ -3509,13 +3991,27 @@
       <c r="D97" s="2">
         <v>2.38</v>
       </c>
-      <c r="E97" s="3"/>
-      <c r="F97" s="3"/>
-      <c r="G97" s="10"/>
-      <c r="H97" s="10"/>
-      <c r="I97" s="10"/>
-      <c r="J97" s="10"/>
-      <c r="K97" s="10"/>
+      <c r="E97" s="3">
+        <v>475238.47899999999</v>
+      </c>
+      <c r="F97" s="3">
+        <v>539969.13600000006</v>
+      </c>
+      <c r="G97" s="10">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H97" s="10">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="I97" s="10">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="J97" s="10">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="K97" s="10">
+        <v>0.108</v>
+      </c>
       <c r="L97" s="10"/>
       <c r="M97" s="10"/>
       <c r="N97" s="10"/>
@@ -3534,13 +4030,27 @@
       <c r="D98" s="2">
         <v>2.57</v>
       </c>
-      <c r="E98" s="3"/>
-      <c r="F98" s="3"/>
-      <c r="G98" s="10"/>
-      <c r="H98" s="10"/>
-      <c r="I98" s="10"/>
-      <c r="J98" s="10"/>
-      <c r="K98" s="10"/>
+      <c r="E98" s="3">
+        <v>475238.79700000002</v>
+      </c>
+      <c r="F98" s="3">
+        <v>539969.51300000004</v>
+      </c>
+      <c r="G98" s="10">
+        <v>0</v>
+      </c>
+      <c r="H98" s="10">
+        <v>0.13</v>
+      </c>
+      <c r="I98" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="J98" s="10">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="K98" s="10">
+        <v>4.7E-2</v>
+      </c>
       <c r="L98" s="10"/>
       <c r="M98" s="10"/>
       <c r="N98" s="10"/>
@@ -3634,13 +4144,27 @@
       <c r="D102" s="2">
         <v>2.06</v>
       </c>
-      <c r="E102" s="3"/>
-      <c r="F102" s="3"/>
-      <c r="G102" s="10"/>
-      <c r="H102" s="10"/>
-      <c r="I102" s="10"/>
-      <c r="J102" s="10"/>
-      <c r="K102" s="10"/>
+      <c r="E102" s="3">
+        <v>475238.76299999998</v>
+      </c>
+      <c r="F102" s="3">
+        <v>539968.93799999997</v>
+      </c>
+      <c r="G102" s="10">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H102" s="10">
+        <v>0.249</v>
+      </c>
+      <c r="I102" s="10">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="J102" s="10">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="K102" s="10">
+        <v>7.1999999999999995E-2</v>
+      </c>
       <c r="L102" s="10"/>
       <c r="M102" s="10"/>
       <c r="N102" s="10"/>
